--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43585</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43404</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43220</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43039</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42947</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42855</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42766</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42674</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>2600</v>
       </c>
       <c r="E8" s="3">
         <v>2000</v>
       </c>
       <c r="F8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2400</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2600</v>
       </c>
       <c r="J8" s="3">
         <v>2600</v>
       </c>
       <c r="K8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L8" s="3">
         <v>3000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2500</v>
       </c>
       <c r="N8" s="3">
         <v>2500</v>
       </c>
       <c r="O8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -794,13 +801,13 @@
         <v>300</v>
       </c>
       <c r="F9" s="3">
+        <v>300</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>400</v>
@@ -829,55 +836,61 @@
       <c r="Q9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E10" s="3">
         <v>1700</v>
       </c>
       <c r="F10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G10" s="3">
         <v>1500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2200</v>
       </c>
       <c r="J10" s="3">
         <v>2200</v>
       </c>
       <c r="K10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2100</v>
       </c>
       <c r="N10" s="3">
         <v>2100</v>
       </c>
       <c r="O10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,18 +1029,18 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
@@ -1034,24 +1054,27 @@
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>300</v>
@@ -1063,7 +1086,7 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L15" s="3">
         <v>200</v>
@@ -1078,13 +1101,16 @@
         <v>200</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,31 +1245,32 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1245,11 +1279,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1257,57 +1291,63 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-800</v>
       </c>
       <c r="F21" s="3">
         <v>-800</v>
       </c>
       <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-700</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,55 +1393,61 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-1200</v>
       </c>
       <c r="F23" s="3">
         <v>-1200</v>
       </c>
       <c r="G23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-200</v>
       </c>
       <c r="N23" s="3">
         <v>-200</v>
       </c>
       <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1421,11 +1467,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-1200</v>
       </c>
       <c r="F26" s="3">
         <v>-1200</v>
       </c>
       <c r="G26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-200</v>
       </c>
       <c r="N26" s="3">
         <v>-200</v>
       </c>
       <c r="O26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-1200</v>
       </c>
       <c r="F27" s="3">
         <v>-1200</v>
       </c>
       <c r="G27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-200</v>
       </c>
       <c r="N27" s="3">
         <v>-200</v>
       </c>
       <c r="O27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1655,11 +1716,11 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-400</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1670,8 +1731,8 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,31 +1843,34 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1809,11 +1879,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -1821,57 +1891,63 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1200</v>
       </c>
       <c r="F33" s="3">
         <v>-1200</v>
       </c>
       <c r="G33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-200</v>
       </c>
       <c r="N33" s="3">
         <v>-200</v>
       </c>
       <c r="O33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-1200</v>
       </c>
       <c r="F35" s="3">
         <v>-1200</v>
       </c>
       <c r="G35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-200</v>
       </c>
       <c r="N35" s="3">
         <v>-200</v>
       </c>
       <c r="O35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43585</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43404</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43220</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43039</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42947</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42855</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42766</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42674</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>1700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4300</v>
-      </c>
-      <c r="K41" s="3">
-        <v>4200</v>
       </c>
       <c r="L41" s="3">
         <v>4200</v>
       </c>
       <c r="M41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5600</v>
-      </c>
-      <c r="P41" s="3">
-        <v>6000</v>
       </c>
       <c r="Q41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,55 +2238,61 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E43" s="3">
         <v>1100</v>
       </c>
       <c r="F43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1600</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1700</v>
       </c>
       <c r="Q43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,19 +2338,22 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -2263,7 +2362,7 @@
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>600</v>
@@ -2275,69 +2374,75 @@
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
       </c>
       <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
         <v>3000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6500</v>
-      </c>
-      <c r="K46" s="3">
-        <v>6600</v>
       </c>
       <c r="L46" s="3">
         <v>6600</v>
       </c>
       <c r="M46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="N46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,55 +2488,61 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E48" s="3">
         <v>3100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>3600</v>
       </c>
       <c r="G48" s="3">
         <v>3600</v>
       </c>
       <c r="H48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I48" s="3">
         <v>3500</v>
-      </c>
-      <c r="I48" s="3">
-        <v>3300</v>
       </c>
       <c r="J48" s="3">
         <v>3300</v>
       </c>
       <c r="K48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2439,13 +2550,13 @@
         <v>2200</v>
       </c>
       <c r="E49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2300</v>
       </c>
       <c r="G49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H49" s="3">
         <v>2400</v>
@@ -2454,22 +2565,22 @@
         <v>2400</v>
       </c>
       <c r="J49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K49" s="3">
         <v>2500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2300</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2400</v>
       </c>
       <c r="P49" s="3">
         <v>2400</v>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,19 +2688,22 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
@@ -2592,10 +2712,10 @@
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>300</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>12600</v>
       </c>
       <c r="K54" s="3">
         <v>12600</v>
       </c>
       <c r="L54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="M54" s="3">
         <v>12400</v>
-      </c>
-      <c r="M54" s="3">
-        <v>12500</v>
       </c>
       <c r="N54" s="3">
         <v>12500</v>
       </c>
       <c r="O54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="P54" s="3">
         <v>12700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,19 +2890,19 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
       </c>
       <c r="G57" s="3">
+        <v>200</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -2780,11 +2911,11 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>200</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
-      </c>
       <c r="N57" s="3">
         <v>0</v>
       </c>
@@ -2792,13 +2923,16 @@
         <v>0</v>
       </c>
       <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,102 +2978,111 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E59" s="3">
         <v>2200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1900</v>
       </c>
       <c r="P59" s="3">
         <v>1900</v>
       </c>
       <c r="Q59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,16 +3128,19 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
+      <c r="E62" s="3">
+        <v>200</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
@@ -3011,8 +3157,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-10300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-9900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E76" s="3">
         <v>6100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>7000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43585</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43404</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43220</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43039</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42947</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42855</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42766</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42674</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-1200</v>
       </c>
       <c r="F81" s="3">
         <v>-1200</v>
       </c>
       <c r="G81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-200</v>
       </c>
       <c r="N81" s="3">
         <v>-200</v>
       </c>
       <c r="O81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,22 +4025,23 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -3854,7 +4053,7 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L83" s="3">
         <v>200</v>
@@ -3869,13 +4068,16 @@
         <v>200</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
-      </c>
-      <c r="K89" s="3">
-        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4187,43 +4408,46 @@
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-500</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-400</v>
       </c>
       <c r="I91" s="3">
         <v>-400</v>
       </c>
       <c r="J91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-300</v>
       </c>
       <c r="Q91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4328,43 +4558,46 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-300</v>
       </c>
       <c r="Q94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,17 +4813,20 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -4594,13 +4840,13 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4612,13 +4858,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4644,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-400</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-500</v>
       </c>
       <c r="N102" s="3">
         <v>-500</v>
       </c>
       <c r="O102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,138 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43585</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43404</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43220</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43039</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42947</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42855</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42766</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42674</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2000</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
       </c>
       <c r="G8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2600</v>
       </c>
       <c r="K8" s="3">
         <v>2600</v>
       </c>
       <c r="L8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M8" s="3">
         <v>3000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2500</v>
       </c>
       <c r="O8" s="3">
         <v>2500</v>
       </c>
       <c r="P8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,13 +810,13 @@
         <v>300</v>
       </c>
       <c r="G9" s="3">
+        <v>300</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>400</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
@@ -839,58 +845,64 @@
       <c r="R9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1700</v>
       </c>
       <c r="F10" s="3">
         <v>1700</v>
       </c>
       <c r="G10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H10" s="3">
         <v>1500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2100</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2200</v>
       </c>
       <c r="K10" s="3">
         <v>2200</v>
       </c>
       <c r="L10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2100</v>
       </c>
       <c r="O10" s="3">
         <v>2100</v>
       </c>
       <c r="P10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1032,18 +1051,18 @@
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
@@ -1057,27 +1076,30 @@
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
@@ -1089,7 +1111,7 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>200</v>
@@ -1104,13 +1126,16 @@
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,34 +1278,35 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1282,11 +1315,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1294,60 +1327,66 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-800</v>
       </c>
       <c r="G21" s="3">
         <v>-800</v>
       </c>
       <c r="H21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-700</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-1200</v>
       </c>
       <c r="G23" s="3">
         <v>-1200</v>
       </c>
       <c r="H23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
       </c>
       <c r="O23" s="3">
         <v>-200</v>
       </c>
       <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1470,11 +1515,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-1200</v>
       </c>
       <c r="G26" s="3">
         <v>-1200</v>
       </c>
       <c r="H26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
       </c>
       <c r="O26" s="3">
         <v>-200</v>
       </c>
       <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-1200</v>
       </c>
       <c r="G27" s="3">
         <v>-1200</v>
       </c>
       <c r="H27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
       </c>
       <c r="O27" s="3">
         <v>-200</v>
       </c>
       <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1719,11 +1779,11 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-400</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1734,8 +1794,8 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,34 +1912,37 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1882,11 +1951,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -1894,60 +1963,66 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-1200</v>
       </c>
       <c r="G33" s="3">
         <v>-1200</v>
       </c>
       <c r="H33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
       </c>
       <c r="O33" s="3">
         <v>-200</v>
       </c>
       <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-1200</v>
       </c>
       <c r="G35" s="3">
         <v>-1200</v>
       </c>
       <c r="H35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
       </c>
       <c r="O35" s="3">
         <v>-200</v>
       </c>
       <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43585</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43404</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43220</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43039</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42947</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42855</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42766</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42674</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
-      </c>
-      <c r="L41" s="3">
-        <v>4200</v>
       </c>
       <c r="M41" s="3">
         <v>4200</v>
       </c>
       <c r="N41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5600</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>6000</v>
       </c>
       <c r="R41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1100</v>
       </c>
       <c r="F43" s="3">
         <v>1100</v>
       </c>
       <c r="G43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1600</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1700</v>
       </c>
       <c r="R43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,13 +2448,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -2365,7 +2463,7 @@
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>600</v>
@@ -2377,72 +2475,78 @@
         <v>600</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
       </c>
       <c r="Q45" s="3">
         <v>500</v>
       </c>
       <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E46" s="3">
         <v>3500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>6600</v>
       </c>
       <c r="M46" s="3">
         <v>6600</v>
       </c>
       <c r="N46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,75 +2595,81 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
         <v>2900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>3600</v>
       </c>
       <c r="H48" s="3">
         <v>3600</v>
       </c>
       <c r="I48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J48" s="3">
         <v>3500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3300</v>
       </c>
       <c r="K48" s="3">
         <v>3300</v>
       </c>
       <c r="L48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
         <v>2200</v>
       </c>
       <c r="F49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G49" s="3">
         <v>2300</v>
       </c>
       <c r="H49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I49" s="3">
         <v>2400</v>
@@ -2568,22 +2678,22 @@
         <v>2400</v>
       </c>
       <c r="K49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L49" s="3">
         <v>2500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2400</v>
       </c>
       <c r="Q49" s="3">
         <v>2400</v>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2700,13 +2819,13 @@
         <v>500</v>
       </c>
       <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
@@ -2715,10 +2834,10 @@
         <v>400</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>300</v>
       </c>
       <c r="L52" s="3">
         <v>300</v>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11700</v>
-      </c>
-      <c r="K54" s="3">
-        <v>12600</v>
       </c>
       <c r="L54" s="3">
         <v>12600</v>
       </c>
       <c r="M54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="N54" s="3">
         <v>12400</v>
-      </c>
-      <c r="N54" s="3">
-        <v>12500</v>
       </c>
       <c r="O54" s="3">
         <v>12500</v>
       </c>
       <c r="P54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>12700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2893,19 +3023,19 @@
         <v>300</v>
       </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
       </c>
       <c r="H57" s="3">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -2914,11 +3044,11 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
       <c r="O57" s="3">
         <v>0</v>
       </c>
@@ -2926,13 +3056,16 @@
         <v>0</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,22 +3073,22 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2981,113 +3114,122 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N59" s="3">
         <v>2200</v>
       </c>
-      <c r="F59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="H59" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K59" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2200</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1900</v>
       </c>
       <c r="Q59" s="3">
         <v>1900</v>
       </c>
       <c r="R59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3131,19 +3273,22 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
+      <c r="F62" s="3">
+        <v>200</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
@@ -3160,8 +3305,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-10300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E76" s="3">
         <v>6700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43585</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43404</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43220</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43039</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42947</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42855</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42766</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42674</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-1200</v>
       </c>
       <c r="G81" s="3">
         <v>-1200</v>
       </c>
       <c r="H81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
       </c>
       <c r="O81" s="3">
         <v>-200</v>
       </c>
       <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,25 +4223,26 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4056,7 +4254,7 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
@@ -4071,13 +4269,16 @@
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
-      </c>
-      <c r="L89" s="3">
-        <v>100</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4411,43 +4631,46 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-500</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-400</v>
       </c>
       <c r="J91" s="3">
         <v>-400</v>
       </c>
       <c r="K91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-300</v>
       </c>
       <c r="R91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4561,43 +4790,46 @@
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-300</v>
       </c>
       <c r="R94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,20 +5058,23 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -4843,13 +5088,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4861,18 +5106,21 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4896,11 +5144,11 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-400</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-500</v>
       </c>
       <c r="O102" s="3">
         <v>-500</v>
       </c>
       <c r="P102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43585</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43404</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43220</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43039</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42947</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42855</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42766</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42674</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2600</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2000</v>
       </c>
       <c r="G8" s="3">
         <v>2000</v>
       </c>
       <c r="H8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2600</v>
       </c>
       <c r="L8" s="3">
         <v>2600</v>
       </c>
       <c r="M8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="N8" s="3">
         <v>3000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2500</v>
       </c>
       <c r="P8" s="3">
         <v>2500</v>
       </c>
       <c r="Q8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R8" s="3">
         <v>2600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,13 +820,13 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
+        <v>300</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
-      </c>
-      <c r="J9" s="3">
-        <v>400</v>
       </c>
       <c r="K9" s="3">
         <v>400</v>
@@ -848,61 +855,67 @@
       <c r="S9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1700</v>
       </c>
       <c r="G10" s="3">
         <v>1700</v>
       </c>
       <c r="H10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I10" s="3">
         <v>1500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2200</v>
       </c>
       <c r="L10" s="3">
         <v>2200</v>
       </c>
       <c r="M10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2100</v>
       </c>
       <c r="P10" s="3">
         <v>2100</v>
       </c>
       <c r="Q10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R10" s="3">
         <v>2200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1054,18 +1074,18 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
@@ -1079,30 +1099,33 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>400</v>
+      </c>
+      <c r="E15" s="3">
         <v>300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>400</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1114,7 +1137,7 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>200</v>
@@ -1129,13 +1152,16 @@
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,37 +1312,38 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1318,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1330,63 +1364,69 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-800</v>
       </c>
       <c r="H21" s="3">
         <v>-800</v>
       </c>
       <c r="I21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-700</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1200</v>
       </c>
       <c r="H23" s="3">
         <v>-1200</v>
       </c>
       <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-200</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1518,11 +1564,11 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-200</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1200</v>
       </c>
       <c r="H26" s="3">
         <v>-1200</v>
       </c>
       <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-200</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1200</v>
       </c>
       <c r="H27" s="3">
         <v>-1200</v>
       </c>
       <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-200</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1782,11 +1843,11 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-400</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1797,8 +1858,8 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,37 +1982,40 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1954,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -1966,63 +2036,69 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1200</v>
       </c>
       <c r="H33" s="3">
         <v>-1200</v>
       </c>
       <c r="I33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
       </c>
       <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-200</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1200</v>
       </c>
       <c r="H35" s="3">
         <v>-1200</v>
       </c>
       <c r="I35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
       </c>
       <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-200</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43585</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43404</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43220</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43039</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42947</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42855</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42766</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42674</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E41" s="3">
         <v>4600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
-      </c>
-      <c r="M41" s="3">
-        <v>4200</v>
       </c>
       <c r="N41" s="3">
         <v>4200</v>
       </c>
       <c r="O41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5600</v>
-      </c>
-      <c r="R41" s="3">
-        <v>6000</v>
       </c>
       <c r="S41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1100</v>
       </c>
       <c r="G43" s="3">
         <v>1100</v>
       </c>
       <c r="H43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1600</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1700</v>
       </c>
       <c r="S43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2451,13 +2550,13 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
@@ -2466,7 +2565,7 @@
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
@@ -2478,75 +2577,81 @@
         <v>600</v>
       </c>
       <c r="O45" s="3">
+        <v>600</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
       </c>
       <c r="S45" s="3">
+        <v>500</v>
+      </c>
+      <c r="T45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>5800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>3500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>3000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>3200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>6600</v>
       </c>
       <c r="N46" s="3">
         <v>6600</v>
       </c>
       <c r="O46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="P46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,81 +2703,87 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E48" s="3">
         <v>2800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>3600</v>
       </c>
       <c r="I48" s="3">
         <v>3600</v>
       </c>
       <c r="J48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K48" s="3">
         <v>3500</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3300</v>
       </c>
       <c r="L48" s="3">
         <v>3300</v>
       </c>
       <c r="M48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E49" s="3">
         <v>1900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>2200</v>
       </c>
       <c r="F49" s="3">
         <v>2200</v>
       </c>
       <c r="G49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="H49" s="3">
         <v>2300</v>
       </c>
       <c r="I49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J49" s="3">
         <v>2400</v>
@@ -2681,22 +2792,22 @@
         <v>2400</v>
       </c>
       <c r="L49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M49" s="3">
         <v>2500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2400</v>
       </c>
       <c r="R49" s="3">
         <v>2400</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2822,13 +2942,13 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>400</v>
       </c>
       <c r="I52" s="3">
         <v>400</v>
@@ -2837,10 +2957,10 @@
         <v>400</v>
       </c>
       <c r="K52" s="3">
+        <v>400</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>300</v>
       </c>
       <c r="M52" s="3">
         <v>300</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E54" s="3">
         <v>11000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>9000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>12600</v>
       </c>
       <c r="M54" s="3">
         <v>12600</v>
       </c>
       <c r="N54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="O54" s="3">
         <v>12400</v>
-      </c>
-      <c r="O54" s="3">
-        <v>12500</v>
       </c>
       <c r="P54" s="3">
         <v>12500</v>
       </c>
       <c r="Q54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="R54" s="3">
         <v>12700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3026,19 +3157,19 @@
         <v>300</v>
       </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
       </c>
       <c r="I57" s="3">
+        <v>200</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
@@ -3047,11 +3178,11 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
@@ -3059,13 +3190,16 @@
         <v>0</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -3081,8 +3215,8 @@
       <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
+      <c r="H58" s="3">
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3117,114 +3251,123 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1900</v>
       </c>
       <c r="R59" s="3">
         <v>1900</v>
       </c>
       <c r="S59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,7 +3375,7 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,13 +3431,13 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
@@ -3308,8 +3454,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E66" s="3">
         <v>3000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-16300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-16000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-12600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-11900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-11600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-11300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-9900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-9600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E76" s="3">
         <v>7900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>6700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>6100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>9300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>10000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43585</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43404</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43220</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43039</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42947</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42855</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42766</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42674</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1200</v>
       </c>
       <c r="H81" s="3">
         <v>-1200</v>
       </c>
       <c r="I81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
       </c>
       <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-200</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,28 +4422,29 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>400</v>
+      </c>
+      <c r="E83" s="3">
         <v>300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4257,7 +4456,7 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
@@ -4272,13 +4471,16 @@
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
-      </c>
-      <c r="M89" s="3">
-        <v>100</v>
       </c>
       <c r="N89" s="3">
         <v>100</v>
       </c>
       <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,13 +4836,14 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
@@ -4634,43 +4855,46 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-400</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-400</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-300</v>
       </c>
       <c r="S91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,13 +5002,16 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -4793,43 +5023,46 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-300</v>
       </c>
       <c r="S94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,23 +5304,26 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>2000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -5091,13 +5337,13 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5109,22 +5355,25 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -5147,11 +5396,11 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-400</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-500</v>
       </c>
       <c r="P102" s="3">
         <v>-500</v>
       </c>
       <c r="Q102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,159 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43585</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43404</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43220</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43039</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42947</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42855</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42766</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42674</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2400</v>
       </c>
       <c r="L8" s="3">
         <v>2600</v>
       </c>
       <c r="M8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="P8" s="3">
         <v>3000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>2500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>2500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>2400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -823,7 +837,7 @@
         <v>300</v>
       </c>
       <c r="I9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -832,7 +846,7 @@
         <v>400</v>
       </c>
       <c r="L9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M9" s="3">
         <v>400</v>
@@ -858,64 +872,76 @@
       <c r="T9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3">
+        <v>400</v>
+      </c>
+      <c r="V9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>1700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>1700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>1500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,49 +1082,55 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1102,36 +1142,42 @@
         <v>0</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3">
         <v>400</v>
-      </c>
-      <c r="E15" s="3">
-        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>500</v>
+      </c>
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
-        <v>300</v>
-      </c>
       <c r="K15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1140,10 +1186,10 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
@@ -1155,13 +1201,19 @@
         <v>200</v>
       </c>
       <c r="S15" s="3">
+        <v>200</v>
+      </c>
+      <c r="T15" s="3">
+        <v>200</v>
+      </c>
+      <c r="U15" s="3">
         <v>100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1231,134 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F17" s="3">
         <v>2300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>2900</v>
-      </c>
-      <c r="I17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J17" s="3">
-        <v>2800</v>
       </c>
       <c r="K17" s="3">
         <v>3000</v>
       </c>
       <c r="L17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-800</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-200</v>
       </c>
       <c r="R18" s="3">
         <v>-300</v>
       </c>
       <c r="S18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1322,111 +1390,123 @@
         <v>100</v>
       </c>
       <c r="E20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>-100</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F21" s="3">
         <v>800</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-700</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,69 +1561,81 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-800</v>
       </c>
       <c r="P23" s="3">
         <v>-200</v>
       </c>
       <c r="Q23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1567,14 +1659,14 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-200</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1747,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-800</v>
       </c>
       <c r="P26" s="3">
         <v>-200</v>
       </c>
       <c r="Q26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-800</v>
       </c>
       <c r="P27" s="3">
         <v>-200</v>
       </c>
       <c r="Q27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1846,14 +1968,14 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>-400</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>-400</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1861,11 +1983,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1994,111 +2134,123 @@
         <v>-100</v>
       </c>
       <c r="E32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>100</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-800</v>
       </c>
       <c r="P33" s="3">
         <v>-200</v>
       </c>
       <c r="Q33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2305,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-800</v>
       </c>
       <c r="P35" s="3">
         <v>-200</v>
       </c>
       <c r="Q35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43585</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43404</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43220</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43039</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42947</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42855</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42766</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42674</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2486,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F41" s="3">
         <v>5100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>5100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>5600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>6000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2606,76 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1400</v>
       </c>
       <c r="K43" s="3">
         <v>1200</v>
       </c>
       <c r="L43" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="M43" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="N43" s="3">
         <v>1800</v>
       </c>
       <c r="O43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,40 +2730,46 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>400</v>
       </c>
       <c r="L45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="M45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="N45" s="3">
         <v>600</v>
@@ -2580,78 +2778,90 @@
         <v>600</v>
       </c>
       <c r="P45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>600</v>
+      </c>
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>8600</v>
+      </c>
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>5800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>3500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>3000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>3200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>6500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>8200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2916,138 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F49" s="3">
         <v>2200</v>
       </c>
       <c r="G49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2400</v>
       </c>
       <c r="L49" s="3">
         <v>2400</v>
       </c>
       <c r="M49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="N49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O49" s="3">
         <v>2500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>2600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>2300</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>2400</v>
       </c>
       <c r="T49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,43 +3164,49 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>400</v>
       </c>
       <c r="K52" s="3">
         <v>400</v>
       </c>
       <c r="L52" s="3">
+        <v>400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>400</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>300</v>
       </c>
       <c r="O52" s="3">
         <v>300</v>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>300</v>
+      </c>
+      <c r="V52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3288,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F54" s="3">
         <v>12000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>9200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>9000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>10200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>10800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>11400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>12900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3402,10 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3151,7 +3413,7 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
@@ -3160,78 +3422,84 @@
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
       <c r="R57" s="3">
         <v>0</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
+      <c r="I58" s="3">
+        <v>100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>100</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -3254,108 +3522,120 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>2000</v>
       </c>
       <c r="R59" s="3">
         <v>1900</v>
       </c>
       <c r="S59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>1600</v>
       </c>
       <c r="K60" s="3">
         <v>2100</v>
       </c>
       <c r="L60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N60" s="3">
         <v>1700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>2400</v>
       </c>
       <c r="P60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="Q60" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="R60" s="3">
         <v>1900</v>
@@ -3364,10 +3644,16 @@
         <v>2000</v>
       </c>
       <c r="T60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,10 +3664,10 @@
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3422,28 +3708,34 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3457,11 +3749,11 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,52 +3956,58 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1600</v>
       </c>
       <c r="K66" s="3">
         <v>2100</v>
       </c>
       <c r="L66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N66" s="3">
         <v>1700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2200</v>
       </c>
       <c r="O66" s="3">
         <v>2400</v>
       </c>
       <c r="P66" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="Q66" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="R66" s="3">
         <v>1900</v>
@@ -3700,10 +4016,16 @@
         <v>2000</v>
       </c>
       <c r="T66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="V66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4290,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-15800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-16300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-16000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-15200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-14000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-12600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-11900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-11600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-11300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-11200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-10100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-9900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-9600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4538,76 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F76" s="3">
         <v>8900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>7900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>6700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>6100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>7000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>9200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>9300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>10200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>10300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>10000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>10600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>10500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>10700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4662,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43585</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43404</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43220</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43039</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42947</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42855</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42766</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42674</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-800</v>
       </c>
       <c r="P81" s="3">
         <v>-200</v>
       </c>
       <c r="Q81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,34 +4819,36 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>400</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>500</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
-        <v>300</v>
-      </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -4459,10 +4857,10 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
@@ -4474,13 +4872,19 @@
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
+        <v>200</v>
+      </c>
+      <c r="U83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5187,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
       </c>
       <c r="J89" s="3">
         <v>-400</v>
       </c>
       <c r="K89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-300</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5277,21 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4858,22 +5300,22 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-400</v>
       </c>
       <c r="L91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>-500</v>
-      </c>
       <c r="N91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-500</v>
@@ -4885,16 +5327,22 @@
         <v>-500</v>
       </c>
       <c r="R91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5459,25 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -5026,22 +5486,22 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-300</v>
       </c>
       <c r="O94" s="3">
         <v>-500</v>
@@ -5053,16 +5513,22 @@
         <v>-500</v>
       </c>
       <c r="R94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,29 +5793,35 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>5100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -5340,17 +5832,17 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5358,13 +5850,19 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5375,10 +5873,10 @@
         <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -5399,14 +5897,14 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5419,60 +5917,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-500</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K102" s="3">
-        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>-900</v>
       </c>
       <c r="M102" s="3">
+        <v>200</v>
+      </c>
+      <c r="N102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43585</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43404</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43220</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43039</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42947</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42855</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42766</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42674</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -763,61 +766,64 @@
         <v>5300</v>
       </c>
       <c r="E8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F8" s="3">
         <v>3800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2000</v>
       </c>
       <c r="J8" s="3">
         <v>2000</v>
       </c>
       <c r="K8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>2600</v>
       </c>
       <c r="O8" s="3">
         <v>2600</v>
       </c>
       <c r="P8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>3000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2700</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2500</v>
       </c>
       <c r="S8" s="3">
         <v>2500</v>
       </c>
       <c r="T8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="U8" s="3">
         <v>2600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -843,13 +849,13 @@
         <v>300</v>
       </c>
       <c r="K9" s="3">
+        <v>300</v>
+      </c>
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
       </c>
       <c r="N9" s="3">
         <v>400</v>
@@ -878,8 +884,11 @@
       <c r="V9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -887,61 +896,64 @@
         <v>5000</v>
       </c>
       <c r="E10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F10" s="3">
         <v>3500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
-      </c>
-      <c r="I10" s="3">
-        <v>1700</v>
       </c>
       <c r="J10" s="3">
         <v>1700</v>
       </c>
       <c r="K10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L10" s="3">
         <v>1500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2100</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2200</v>
       </c>
       <c r="O10" s="3">
         <v>2200</v>
       </c>
       <c r="P10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2100</v>
       </c>
       <c r="S10" s="3">
         <v>2100</v>
       </c>
       <c r="T10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1114,8 +1133,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1123,18 +1142,18 @@
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
@@ -1148,10 +1167,13 @@
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1159,28 +1181,28 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
+        <v>400</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>400</v>
       </c>
       <c r="L15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>300</v>
@@ -1192,7 +1214,7 @@
         <v>300</v>
       </c>
       <c r="P15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
@@ -1207,13 +1229,16 @@
         <v>200</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E18" s="3">
         <v>2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,46 +1413,47 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>-100</v>
       </c>
       <c r="O20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1429,11 +1462,11 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
@@ -1441,72 +1474,78 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E21" s="3">
         <v>2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>800</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-800</v>
       </c>
       <c r="K21" s="3">
         <v>-800</v>
       </c>
       <c r="L21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-700</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,79 +1606,85 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1200</v>
       </c>
       <c r="K23" s="3">
         <v>-1200</v>
       </c>
       <c r="L23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-200</v>
       </c>
       <c r="S23" s="3">
         <v>-200</v>
       </c>
       <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1665,11 +1710,11 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-200</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1200</v>
       </c>
       <c r="K26" s="3">
         <v>-1200</v>
       </c>
       <c r="L26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-200</v>
       </c>
       <c r="S26" s="3">
         <v>-200</v>
       </c>
       <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1200</v>
       </c>
       <c r="K27" s="3">
         <v>-1200</v>
       </c>
       <c r="L27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-200</v>
       </c>
       <c r="S27" s="3">
         <v>-200</v>
       </c>
       <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1974,11 +2034,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-400</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1989,8 +2049,8 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,46 +2191,49 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>100</v>
       </c>
       <c r="O32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2173,11 +2242,11 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
@@ -2185,72 +2254,78 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1200</v>
       </c>
       <c r="K33" s="3">
         <v>-1200</v>
       </c>
       <c r="L33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-300</v>
       </c>
       <c r="O33" s="3">
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-200</v>
       </c>
       <c r="S33" s="3">
         <v>-200</v>
       </c>
       <c r="T33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1200</v>
       </c>
       <c r="K35" s="3">
         <v>-1200</v>
       </c>
       <c r="L35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-300</v>
       </c>
       <c r="O35" s="3">
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-200</v>
       </c>
       <c r="S35" s="3">
         <v>-200</v>
       </c>
       <c r="T35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43585</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43404</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43220</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43039</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42947</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42855</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42766</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42674</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E41" s="3">
         <v>13600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4300</v>
-      </c>
-      <c r="P41" s="3">
-        <v>4200</v>
       </c>
       <c r="Q41" s="3">
         <v>4200</v>
       </c>
       <c r="R41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="S41" s="3">
         <v>4600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5600</v>
-      </c>
-      <c r="U41" s="3">
-        <v>6000</v>
       </c>
       <c r="V41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,70 +2701,76 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1100</v>
       </c>
       <c r="J43" s="3">
         <v>1100</v>
       </c>
       <c r="K43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1600</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1700</v>
       </c>
       <c r="V43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,19 +2831,22 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
@@ -2757,13 +2855,13 @@
         <v>200</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>400</v>
@@ -2772,7 +2870,7 @@
         <v>400</v>
       </c>
       <c r="N45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>600</v>
@@ -2784,84 +2882,90 @@
         <v>600</v>
       </c>
       <c r="R45" s="3">
+        <v>600</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>400</v>
-      </c>
-      <c r="T45" s="3">
-        <v>500</v>
       </c>
       <c r="U45" s="3">
         <v>500</v>
       </c>
       <c r="V45" s="3">
+        <v>500</v>
+      </c>
+      <c r="W45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E46" s="3">
         <v>16800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>3500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6500</v>
-      </c>
-      <c r="P46" s="3">
-        <v>6600</v>
       </c>
       <c r="Q46" s="3">
         <v>6600</v>
       </c>
       <c r="R46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,99 +3026,105 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>3600</v>
       </c>
       <c r="L48" s="3">
         <v>3600</v>
       </c>
       <c r="M48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="N48" s="3">
         <v>3500</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3300</v>
       </c>
       <c r="O48" s="3">
         <v>3300</v>
       </c>
       <c r="P48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2200</v>
       </c>
       <c r="I49" s="3">
         <v>2200</v>
       </c>
       <c r="J49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>2300</v>
       </c>
       <c r="L49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="M49" s="3">
         <v>2400</v>
@@ -3023,22 +3133,22 @@
         <v>2400</v>
       </c>
       <c r="O49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P49" s="3">
         <v>2500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>2400</v>
       </c>
       <c r="U49" s="3">
         <v>2400</v>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,19 +3286,22 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
-      </c>
-      <c r="F52" s="3">
-        <v>500</v>
       </c>
       <c r="G52" s="3">
         <v>500</v>
@@ -3191,13 +3310,13 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>400</v>
       </c>
       <c r="L52" s="3">
         <v>400</v>
@@ -3206,10 +3325,10 @@
         <v>400</v>
       </c>
       <c r="N52" s="3">
+        <v>400</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>300</v>
       </c>
       <c r="P52" s="3">
         <v>300</v>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E54" s="3">
         <v>21800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>13500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>9200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>11400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11700</v>
-      </c>
-      <c r="O54" s="3">
-        <v>12600</v>
       </c>
       <c r="P54" s="3">
         <v>12600</v>
       </c>
       <c r="Q54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="R54" s="3">
         <v>12400</v>
-      </c>
-      <c r="R54" s="3">
-        <v>12500</v>
       </c>
       <c r="S54" s="3">
         <v>12500</v>
       </c>
       <c r="T54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="U54" s="3">
         <v>12700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3413,10 +3543,10 @@
         <v>300</v>
       </c>
       <c r="E57" s="3">
+        <v>300</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
@@ -3428,19 +3558,19 @@
         <v>300</v>
       </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
       </c>
       <c r="L57" s="3">
+        <v>200</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -3449,11 +3579,11 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
+        <v>300</v>
+      </c>
+      <c r="R57" s="3">
         <v>200</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
       <c r="S57" s="3">
         <v>0</v>
       </c>
@@ -3461,30 +3591,33 @@
         <v>0</v>
       </c>
       <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
         <v>100</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3492,8 +3625,8 @@
       <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>8</v>
+      <c r="K58" s="3">
+        <v>100</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>8</v>
@@ -3501,8 +3634,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -3528,132 +3661,141 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1900</v>
       </c>
       <c r="U59" s="3">
         <v>1900</v>
       </c>
       <c r="V59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>3600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3670,7 +3812,7 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -3714,31 +3856,34 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>200</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3755,8 +3900,8 @@
       <c r="O62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-12500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-16300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-11900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-9900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E76" s="3">
         <v>18000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>6700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>9200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43585</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43404</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43220</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43039</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42947</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42855</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42766</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42674</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1200</v>
       </c>
       <c r="K81" s="3">
         <v>-1200</v>
       </c>
       <c r="L81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-300</v>
       </c>
       <c r="O81" s="3">
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-200</v>
       </c>
       <c r="S81" s="3">
         <v>-200</v>
       </c>
       <c r="T81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,28 +5028,28 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>500</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
       </c>
       <c r="L83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>300</v>
@@ -4863,7 +5061,7 @@
         <v>300</v>
       </c>
       <c r="P83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
@@ -4878,13 +5076,16 @@
         <v>200</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>100</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-300</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,22 +5498,23 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -5306,43 +5526,46 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-400</v>
       </c>
       <c r="N91" s="3">
         <v>-400</v>
       </c>
       <c r="O91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P91" s="3">
         <v>-500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-400</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-300</v>
       </c>
       <c r="V91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5477,10 +5706,10 @@
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -5492,43 +5721,46 @@
         <v>-200</v>
       </c>
       <c r="K94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L94" s="3">
         <v>-400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-300</v>
       </c>
       <c r="V94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,32 +6041,35 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E100" s="3">
         <v>5100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5838,13 +6083,13 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5856,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5870,17 +6118,17 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -5903,11 +6151,11 @@
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -5923,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E102" s="3">
         <v>7400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-400</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-500</v>
       </c>
       <c r="S102" s="3">
         <v>-500</v>
       </c>
       <c r="T102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,172 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43585</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43404</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43220</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43131</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43039</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42947</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42855</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42766</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42674</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="E8" s="3">
         <v>5300</v>
       </c>
       <c r="F8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G8" s="3">
         <v>3800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2000</v>
       </c>
       <c r="K8" s="3">
         <v>2000</v>
       </c>
       <c r="L8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>2600</v>
       </c>
       <c r="P8" s="3">
         <v>2600</v>
       </c>
       <c r="Q8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="R8" s="3">
         <v>3000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>2700</v>
-      </c>
-      <c r="S8" s="3">
-        <v>2500</v>
       </c>
       <c r="T8" s="3">
         <v>2500</v>
       </c>
       <c r="U8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -852,13 +859,13 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
+        <v>300</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>400</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
@@ -887,73 +894,79 @@
       <c r="W9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="E10" s="3">
         <v>5000</v>
       </c>
       <c r="F10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="3">
         <v>3500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>1700</v>
       </c>
       <c r="K10" s="3">
         <v>1700</v>
       </c>
       <c r="L10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M10" s="3">
         <v>1500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2200</v>
       </c>
       <c r="P10" s="3">
         <v>2200</v>
       </c>
       <c r="Q10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R10" s="3">
         <v>2600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2100</v>
       </c>
       <c r="T10" s="3">
         <v>2100</v>
       </c>
       <c r="U10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1156,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1145,18 +1165,18 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
@@ -1170,10 +1190,13 @@
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1184,28 +1207,28 @@
         <v>300</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
       </c>
       <c r="H15" s="3">
+        <v>400</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>400</v>
       </c>
       <c r="M15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>300</v>
@@ -1217,7 +1240,7 @@
         <v>300</v>
       </c>
       <c r="Q15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R15" s="3">
         <v>200</v>
@@ -1232,13 +1255,16 @@
         <v>200</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E18" s="3">
         <v>2000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,49 +1447,50 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>-100</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1465,11 +1499,11 @@
         <v>0</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1477,75 +1511,81 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E21" s="3">
         <v>2300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>800</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
       </c>
       <c r="L21" s="3">
         <v>-800</v>
       </c>
       <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-700</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,85 +1649,91 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>2000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-1200</v>
       </c>
       <c r="L23" s="3">
         <v>-1200</v>
       </c>
       <c r="M23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-200</v>
       </c>
       <c r="T23" s="3">
         <v>-200</v>
       </c>
       <c r="U23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1713,11 +1759,11 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
         <v>-200</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-1200</v>
       </c>
       <c r="L26" s="3">
         <v>-1200</v>
       </c>
       <c r="M26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-200</v>
       </c>
       <c r="T26" s="3">
         <v>-200</v>
       </c>
       <c r="U26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-1200</v>
       </c>
       <c r="L27" s="3">
         <v>-1200</v>
       </c>
       <c r="M27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-200</v>
       </c>
       <c r="T27" s="3">
         <v>-200</v>
       </c>
       <c r="U27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2037,11 +2098,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-400</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2052,8 +2113,8 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,49 +2261,52 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O32" s="3">
         <v>100</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2245,11 +2315,11 @@
         <v>0</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2257,75 +2327,81 @@
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-1200</v>
       </c>
       <c r="L33" s="3">
         <v>-1200</v>
       </c>
       <c r="M33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-700</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-300</v>
       </c>
       <c r="P33" s="3">
         <v>-300</v>
       </c>
       <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-200</v>
       </c>
       <c r="T33" s="3">
         <v>-200</v>
       </c>
       <c r="U33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-1200</v>
       </c>
       <c r="L35" s="3">
         <v>-1200</v>
       </c>
       <c r="M35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-700</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-300</v>
       </c>
       <c r="P35" s="3">
         <v>-300</v>
       </c>
       <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-200</v>
       </c>
       <c r="T35" s="3">
         <v>-200</v>
       </c>
       <c r="U35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43585</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43404</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43220</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43131</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43039</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42947</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42855</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42766</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42674</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,8 +2660,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2583,64 +2670,67 @@
         <v>24900</v>
       </c>
       <c r="E41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F41" s="3">
         <v>13600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4300</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>4200</v>
       </c>
       <c r="R41" s="3">
         <v>4200</v>
       </c>
       <c r="S41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T41" s="3">
         <v>4600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>5100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5600</v>
-      </c>
-      <c r="V41" s="3">
-        <v>6000</v>
       </c>
       <c r="W41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,73 +2794,79 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1000</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>1100</v>
       </c>
       <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1600</v>
-      </c>
-      <c r="V43" s="3">
-        <v>1700</v>
       </c>
       <c r="W43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2834,8 +2930,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2843,13 +2942,13 @@
         <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H45" s="3">
         <v>200</v>
@@ -2858,13 +2957,13 @@
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>400</v>
@@ -2873,7 +2972,7 @@
         <v>400</v>
       </c>
       <c r="O45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
@@ -2885,87 +2984,93 @@
         <v>600</v>
       </c>
       <c r="S45" s="3">
+        <v>600</v>
+      </c>
+      <c r="T45" s="3">
         <v>700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>400</v>
-      </c>
-      <c r="U45" s="3">
-        <v>500</v>
       </c>
       <c r="V45" s="3">
         <v>500</v>
       </c>
       <c r="W45" s="3">
+        <v>500</v>
+      </c>
+      <c r="X45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E46" s="3">
         <v>27900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>16800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>3500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>6500</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>6600</v>
       </c>
       <c r="R46" s="3">
         <v>6600</v>
       </c>
       <c r="S46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="T46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,105 +3134,111 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>3600</v>
       </c>
       <c r="M48" s="3">
         <v>3600</v>
       </c>
       <c r="N48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="O48" s="3">
         <v>3500</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3300</v>
       </c>
       <c r="P48" s="3">
         <v>3300</v>
       </c>
       <c r="Q48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E49" s="3">
         <v>2400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>2200</v>
       </c>
       <c r="J49" s="3">
         <v>2200</v>
       </c>
       <c r="K49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="L49" s="3">
         <v>2300</v>
       </c>
       <c r="M49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="N49" s="3">
         <v>2400</v>
@@ -3136,22 +3247,22 @@
         <v>2400</v>
       </c>
       <c r="P49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2300</v>
-      </c>
-      <c r="U49" s="3">
-        <v>2400</v>
       </c>
       <c r="V49" s="3">
         <v>2400</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,22 +3406,25 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>5400</v>
       </c>
       <c r="E52" s="3">
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
-      </c>
-      <c r="G52" s="3">
-        <v>500</v>
       </c>
       <c r="H52" s="3">
         <v>500</v>
@@ -3313,13 +3433,13 @@
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>400</v>
       </c>
       <c r="M52" s="3">
         <v>400</v>
@@ -3328,10 +3448,10 @@
         <v>400</v>
       </c>
       <c r="O52" s="3">
+        <v>400</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>300</v>
       </c>
       <c r="Q52" s="3">
         <v>300</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>33000</v>
+        <v>37500</v>
       </c>
       <c r="E54" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F54" s="3">
         <v>21800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>13500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11700</v>
-      </c>
-      <c r="P54" s="3">
-        <v>12600</v>
       </c>
       <c r="Q54" s="3">
         <v>12600</v>
       </c>
       <c r="R54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="S54" s="3">
         <v>12400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>12500</v>
       </c>
       <c r="T54" s="3">
         <v>12500</v>
       </c>
       <c r="U54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="V54" s="3">
         <v>12700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,22 +3664,23 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E57" s="3">
         <v>300</v>
       </c>
       <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
@@ -3561,19 +3692,19 @@
         <v>300</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
       </c>
       <c r="M57" s="3">
+        <v>200</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -3582,11 +3713,11 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
+        <v>300</v>
+      </c>
+      <c r="S57" s="3">
         <v>200</v>
       </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
       <c r="T57" s="3">
         <v>0</v>
       </c>
@@ -3594,33 +3725,36 @@
         <v>0</v>
       </c>
       <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>100</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -3628,8 +3762,8 @@
       <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>8</v>
+      <c r="L58" s="3">
+        <v>100</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>8</v>
@@ -3637,8 +3771,8 @@
       <c r="N58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3664,143 +3798,152 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4600</v>
+        <v>3600</v>
       </c>
       <c r="E59" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1900</v>
       </c>
       <c r="V59" s="3">
         <v>1900</v>
       </c>
       <c r="W59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
@@ -3815,7 +3958,7 @@
         <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3859,34 +4002,37 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
       </c>
       <c r="I62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>200</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>8</v>
@@ -3903,8 +4049,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-10500</v>
+        <v>-7600</v>
       </c>
       <c r="E72" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-12500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-15800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-16300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-11900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-9900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>27600</v>
+        <v>33200</v>
       </c>
       <c r="E76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="F76" s="3">
         <v>18000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>6700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>9200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>10000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43585</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43404</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43220</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43131</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43039</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42947</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42855</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42766</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42674</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1900</v>
+        <v>2500</v>
       </c>
       <c r="E81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-1200</v>
       </c>
       <c r="L81" s="3">
         <v>-1200</v>
       </c>
       <c r="M81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-700</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-300</v>
       </c>
       <c r="P81" s="3">
         <v>-300</v>
       </c>
       <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-200</v>
       </c>
       <c r="T81" s="3">
         <v>-200</v>
       </c>
       <c r="U81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5031,28 +5230,28 @@
         <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>300</v>
@@ -5064,7 +5263,7 @@
         <v>300</v>
       </c>
       <c r="Q83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
@@ -5079,13 +5278,16 @@
         <v>200</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E89" s="3">
         <v>4000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-300</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,16 +5729,16 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -5529,43 +5750,46 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-500</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-400</v>
       </c>
       <c r="O91" s="3">
         <v>-400</v>
       </c>
       <c r="P91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-400</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-300</v>
       </c>
       <c r="W91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,13 +5921,16 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-4900</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -5709,10 +5939,10 @@
         <v>-200</v>
       </c>
       <c r="G94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -5724,43 +5954,46 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M94" s="3">
         <v>-400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-300</v>
       </c>
       <c r="W94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,35 +6287,38 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3">
         <v>7500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -6086,13 +6332,13 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6104,34 +6350,37 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -6154,11 +6403,11 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>11300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>7400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-400</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-500</v>
       </c>
       <c r="T102" s="3">
         <v>-500</v>
       </c>
       <c r="U102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43585</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43404</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43312</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43220</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43131</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43039</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42947</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42855</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42766</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42674</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5200</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5300</v>
       </c>
       <c r="F8" s="3">
         <v>5300</v>
       </c>
       <c r="G8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="H8" s="3">
         <v>3800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2000</v>
       </c>
       <c r="L8" s="3">
         <v>2000</v>
       </c>
       <c r="M8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2600</v>
       </c>
       <c r="Q8" s="3">
         <v>2600</v>
       </c>
       <c r="R8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="S8" s="3">
         <v>3000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>2500</v>
       </c>
       <c r="U8" s="3">
         <v>2500</v>
       </c>
       <c r="V8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="W8" s="3">
         <v>2600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>2400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -862,13 +869,13 @@
         <v>300</v>
       </c>
       <c r="M9" s="3">
+        <v>300</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
@@ -897,76 +904,82 @@
       <c r="X9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E10" s="3">
         <v>4900</v>
-      </c>
-      <c r="E10" s="3">
-        <v>5000</v>
       </c>
       <c r="F10" s="3">
         <v>5000</v>
       </c>
       <c r="G10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H10" s="3">
         <v>3500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1700</v>
       </c>
       <c r="L10" s="3">
         <v>1700</v>
       </c>
       <c r="M10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N10" s="3">
         <v>1500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2200</v>
       </c>
       <c r="Q10" s="3">
         <v>2200</v>
       </c>
       <c r="R10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S10" s="3">
         <v>2600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2100</v>
       </c>
       <c r="U10" s="3">
         <v>2100</v>
       </c>
       <c r="V10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W10" s="3">
         <v>2200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1159,8 +1179,8 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1168,18 +1188,18 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
@@ -1193,15 +1213,18 @@
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E15" s="3">
         <v>300</v>
@@ -1210,28 +1233,28 @@
         <v>300</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
       </c>
       <c r="I15" s="3">
+        <v>400</v>
+      </c>
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>500</v>
-      </c>
-      <c r="L15" s="3">
-        <v>400</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
@@ -1243,7 +1266,7 @@
         <v>300</v>
       </c>
       <c r="R15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S15" s="3">
         <v>200</v>
@@ -1258,13 +1281,16 @@
         <v>200</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1312,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,52 +1481,53 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>-100</v>
       </c>
       <c r="Q20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1502,11 +1536,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1514,78 +1548,84 @@
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E21" s="3">
         <v>2700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>800</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-800</v>
       </c>
       <c r="M21" s="3">
         <v>-800</v>
       </c>
       <c r="N21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-700</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,91 +1692,97 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-1200</v>
       </c>
       <c r="M23" s="3">
         <v>-1200</v>
       </c>
       <c r="N23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-200</v>
       </c>
       <c r="U23" s="3">
         <v>-200</v>
       </c>
       <c r="V23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1762,11 +1808,11 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-200</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1905,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E26" s="3">
         <v>2500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-1200</v>
       </c>
       <c r="M26" s="3">
         <v>-1200</v>
       </c>
       <c r="N26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-200</v>
       </c>
       <c r="U26" s="3">
         <v>-200</v>
       </c>
       <c r="V26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E27" s="3">
         <v>2500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-1200</v>
       </c>
       <c r="M27" s="3">
         <v>-1200</v>
       </c>
       <c r="N27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-200</v>
       </c>
       <c r="U27" s="3">
         <v>-200</v>
       </c>
       <c r="V27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,31 +2118,34 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2101,11 +2162,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2116,8 +2177,8 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,52 +2331,55 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>100</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2318,11 +2388,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2330,78 +2400,84 @@
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E33" s="3">
         <v>2500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-1200</v>
       </c>
       <c r="M33" s="3">
         <v>-1200</v>
       </c>
       <c r="N33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-200</v>
       </c>
       <c r="U33" s="3">
         <v>-200</v>
       </c>
       <c r="V33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E35" s="3">
         <v>2500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-1200</v>
       </c>
       <c r="M35" s="3">
         <v>-1200</v>
       </c>
       <c r="N35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-200</v>
       </c>
       <c r="U35" s="3">
         <v>-200</v>
       </c>
       <c r="V35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43585</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43404</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43312</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43220</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43131</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43039</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42947</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42855</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42766</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42674</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2747,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>24900</v>
+        <v>27200</v>
       </c>
       <c r="E41" s="3">
         <v>24900</v>
       </c>
       <c r="F41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="G41" s="3">
         <v>13600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4300</v>
-      </c>
-      <c r="R41" s="3">
-        <v>4200</v>
       </c>
       <c r="S41" s="3">
         <v>4200</v>
       </c>
       <c r="T41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="U41" s="3">
         <v>4600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>5100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5600</v>
-      </c>
-      <c r="W41" s="3">
-        <v>6000</v>
       </c>
       <c r="X41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,76 +2887,82 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1100</v>
       </c>
       <c r="L43" s="3">
         <v>1100</v>
       </c>
       <c r="M43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1600</v>
-      </c>
-      <c r="W43" s="3">
-        <v>1700</v>
       </c>
       <c r="X43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,25 +3029,28 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
@@ -2960,13 +3059,13 @@
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>400</v>
       </c>
       <c r="N45" s="3">
         <v>400</v>
@@ -2975,7 +3074,7 @@
         <v>400</v>
       </c>
       <c r="P45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="Q45" s="3">
         <v>600</v>
@@ -2987,90 +3086,96 @@
         <v>600</v>
       </c>
       <c r="T45" s="3">
+        <v>600</v>
+      </c>
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
-      </c>
-      <c r="V45" s="3">
-        <v>500</v>
       </c>
       <c r="W45" s="3">
         <v>500</v>
       </c>
       <c r="X45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E46" s="3">
         <v>27600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>16800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>3500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>6600</v>
       </c>
       <c r="S46" s="3">
         <v>6600</v>
       </c>
       <c r="T46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="U46" s="3">
         <v>7000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,111 +3242,117 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3400</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3600</v>
       </c>
       <c r="N48" s="3">
         <v>3600</v>
       </c>
       <c r="O48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="P48" s="3">
         <v>3500</v>
-      </c>
-      <c r="P48" s="3">
-        <v>3300</v>
       </c>
       <c r="Q48" s="3">
         <v>3300</v>
       </c>
       <c r="R48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E49" s="3">
         <v>2300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>2200</v>
       </c>
       <c r="K49" s="3">
         <v>2200</v>
       </c>
       <c r="L49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="M49" s="3">
         <v>2300</v>
       </c>
       <c r="N49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="O49" s="3">
         <v>2400</v>
@@ -3250,22 +3361,22 @@
         <v>2400</v>
       </c>
       <c r="Q49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R49" s="3">
         <v>2500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>2400</v>
       </c>
       <c r="W49" s="3">
         <v>2400</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3526,28 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>600</v>
+      </c>
+      <c r="E52" s="3">
         <v>5400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -3436,13 +3556,13 @@
         <v>500</v>
       </c>
       <c r="K52" s="3">
+        <v>500</v>
+      </c>
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>400</v>
       </c>
       <c r="N52" s="3">
         <v>400</v>
@@ -3451,10 +3571,10 @@
         <v>400</v>
       </c>
       <c r="P52" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>300</v>
       </c>
       <c r="R52" s="3">
         <v>300</v>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>42400</v>
+      </c>
+      <c r="E54" s="3">
         <v>37500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>33600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>13500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>10200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>12600</v>
       </c>
       <c r="R54" s="3">
         <v>12600</v>
       </c>
       <c r="S54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="T54" s="3">
         <v>12400</v>
-      </c>
-      <c r="T54" s="3">
-        <v>12500</v>
       </c>
       <c r="U54" s="3">
         <v>12500</v>
       </c>
       <c r="V54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="W54" s="3">
         <v>12700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3795,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>600</v>
-      </c>
-      <c r="E57" s="3">
-        <v>300</v>
       </c>
       <c r="F57" s="3">
         <v>300</v>
       </c>
       <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>300</v>
       </c>
       <c r="I57" s="3">
         <v>300</v>
@@ -3695,19 +3826,19 @@
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
-      </c>
-      <c r="P57" s="3">
-        <v>300</v>
       </c>
       <c r="Q57" s="3">
         <v>300</v>
@@ -3716,11 +3847,11 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
+        <v>300</v>
+      </c>
+      <c r="T57" s="3">
         <v>200</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
       <c r="U57" s="3">
         <v>0</v>
       </c>
@@ -3728,36 +3859,39 @@
         <v>0</v>
       </c>
       <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
         <v>100</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3765,8 +3899,8 @@
       <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>8</v>
+      <c r="M58" s="3">
+        <v>100</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>8</v>
@@ -3774,8 +3908,8 @@
       <c r="O58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3801,144 +3935,153 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
         <v>3600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>4700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1900</v>
       </c>
       <c r="W59" s="3">
         <v>1900</v>
       </c>
       <c r="X59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>200</v>
@@ -3961,7 +4104,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4005,8 +4148,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4014,28 +4160,28 @@
         <v>100</v>
       </c>
       <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
       </c>
       <c r="J62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="L62" s="3">
+        <v>200</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -4052,8 +4198,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-10000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-12500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-15800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-16300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-11900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-10300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-9900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E76" s="3">
         <v>33200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>18000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>10000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>6700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>9200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43585</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43404</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43312</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43220</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43131</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43039</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42947</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42855</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42766</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42674</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E81" s="3">
         <v>2500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-1200</v>
       </c>
       <c r="M81" s="3">
         <v>-1200</v>
       </c>
       <c r="N81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-200</v>
       </c>
       <c r="U81" s="3">
         <v>-200</v>
       </c>
       <c r="V81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5416,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -5233,28 +5432,28 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>500</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
@@ -5266,7 +5465,7 @@
         <v>300</v>
       </c>
       <c r="R83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S83" s="3">
         <v>200</v>
@@ -5281,13 +5480,16 @@
         <v>200</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>2400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>100</v>
       </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-300</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,28 +5940,29 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -5753,43 +5974,46 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-500</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-400</v>
       </c>
       <c r="P91" s="3">
         <v>-400</v>
       </c>
       <c r="Q91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R91" s="3">
         <v>-500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-400</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-300</v>
       </c>
       <c r="X91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,16 +6151,19 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -5942,10 +6172,10 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -5957,43 +6187,46 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-300</v>
       </c>
       <c r="X94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,38 +6533,41 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -6335,13 +6581,13 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -6353,37 +6599,40 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -6406,11 +6655,11 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>11300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>7400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-400</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-500</v>
       </c>
       <c r="U102" s="3">
         <v>-500</v>
       </c>
       <c r="V102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43585</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43496</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43404</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43312</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43220</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43131</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43039</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42947</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42855</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42766</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42674</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>5300</v>
       </c>
       <c r="G8" s="3">
         <v>5300</v>
       </c>
       <c r="H8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I8" s="3">
         <v>3800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2000</v>
       </c>
       <c r="M8" s="3">
         <v>2000</v>
       </c>
       <c r="N8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2600</v>
       </c>
       <c r="R8" s="3">
         <v>2600</v>
       </c>
       <c r="S8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="T8" s="3">
         <v>3000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2700</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2500</v>
       </c>
       <c r="V8" s="3">
         <v>2500</v>
       </c>
       <c r="W8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="X8" s="3">
         <v>2600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -872,13 +879,13 @@
         <v>300</v>
       </c>
       <c r="N9" s="3">
+        <v>300</v>
+      </c>
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
       </c>
       <c r="Q9" s="3">
         <v>400</v>
@@ -907,79 +914,85 @@
       <c r="Y9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E10" s="3">
         <v>5700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4900</v>
-      </c>
-      <c r="F10" s="3">
-        <v>5000</v>
       </c>
       <c r="G10" s="3">
         <v>5000</v>
       </c>
       <c r="H10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I10" s="3">
         <v>3500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>1800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1700</v>
       </c>
       <c r="M10" s="3">
         <v>1700</v>
       </c>
       <c r="N10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O10" s="3">
         <v>1500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2200</v>
       </c>
       <c r="R10" s="3">
         <v>2200</v>
       </c>
       <c r="S10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T10" s="3">
         <v>2600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2100</v>
       </c>
       <c r="V10" s="3">
         <v>2100</v>
       </c>
       <c r="W10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X10" s="3">
         <v>2200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1182,8 +1202,8 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1191,18 +1211,18 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
@@ -1216,10 +1236,13 @@
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1227,7 +1250,7 @@
         <v>400</v>
       </c>
       <c r="E15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F15" s="3">
         <v>300</v>
@@ -1236,28 +1259,28 @@
         <v>300</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
       </c>
       <c r="J15" s="3">
+        <v>400</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>500</v>
-      </c>
-      <c r="M15" s="3">
-        <v>400</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P15" s="3">
         <v>300</v>
@@ -1269,7 +1292,7 @@
         <v>300</v>
       </c>
       <c r="S15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T15" s="3">
         <v>200</v>
@@ -1284,13 +1307,16 @@
         <v>200</v>
       </c>
       <c r="X15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1339,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>2600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,55 +1515,56 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>-100</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1539,11 +1573,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1551,81 +1585,87 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E21" s="3">
         <v>3000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>800</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-800</v>
       </c>
       <c r="N21" s="3">
         <v>-800</v>
       </c>
       <c r="O21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-700</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,97 +1735,103 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E23" s="3">
         <v>2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1200</v>
       </c>
       <c r="N23" s="3">
         <v>-1200</v>
       </c>
       <c r="O23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>700</v>
+      </c>
+      <c r="E24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1811,11 +1857,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-200</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1957,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1200</v>
       </c>
       <c r="N26" s="3">
         <v>-1200</v>
       </c>
       <c r="O26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
       </c>
       <c r="V26" s="3">
         <v>-200</v>
       </c>
       <c r="W26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1200</v>
       </c>
       <c r="N27" s="3">
         <v>-1200</v>
       </c>
       <c r="O27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
       </c>
       <c r="V27" s="3">
         <v>-200</v>
       </c>
       <c r="W27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2147,8 +2208,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2165,11 +2226,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-400</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2180,8 +2241,8 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,55 +2401,58 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>100</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2391,11 +2461,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2403,81 +2473,87 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1200</v>
       </c>
       <c r="N33" s="3">
         <v>-1200</v>
       </c>
       <c r="O33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
       </c>
       <c r="V33" s="3">
         <v>-200</v>
       </c>
       <c r="W33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1200</v>
       </c>
       <c r="N35" s="3">
         <v>-1200</v>
       </c>
       <c r="O35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
       </c>
       <c r="V35" s="3">
         <v>-200</v>
       </c>
       <c r="W35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43585</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43496</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43404</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43312</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43220</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43131</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43039</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42947</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42855</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42766</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42674</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2834,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27200</v>
-      </c>
-      <c r="E41" s="3">
-        <v>24900</v>
       </c>
       <c r="F41" s="3">
         <v>24900</v>
       </c>
       <c r="G41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="H41" s="3">
         <v>13600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>4600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4300</v>
-      </c>
-      <c r="S41" s="3">
-        <v>4200</v>
       </c>
       <c r="T41" s="3">
         <v>4200</v>
       </c>
       <c r="U41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="V41" s="3">
         <v>4600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5600</v>
-      </c>
-      <c r="X41" s="3">
-        <v>6000</v>
       </c>
       <c r="Y41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,79 +2980,85 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1100</v>
       </c>
       <c r="M43" s="3">
         <v>1100</v>
       </c>
       <c r="N43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O43" s="3">
         <v>1200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1600</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1700</v>
       </c>
       <c r="Y43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3041,19 +3140,19 @@
         <v>400</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
@@ -3062,13 +3161,13 @@
         <v>200</v>
       </c>
       <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>400</v>
@@ -3077,7 +3176,7 @@
         <v>400</v>
       </c>
       <c r="Q45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>600</v>
@@ -3089,93 +3188,99 @@
         <v>600</v>
       </c>
       <c r="U45" s="3">
+        <v>600</v>
+      </c>
+      <c r="V45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>500</v>
       </c>
       <c r="X45" s="3">
         <v>500</v>
       </c>
       <c r="Y45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>33700</v>
+      </c>
+      <c r="E46" s="3">
         <v>30500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>27600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>16800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6500</v>
-      </c>
-      <c r="S46" s="3">
-        <v>6600</v>
       </c>
       <c r="T46" s="3">
         <v>6600</v>
       </c>
       <c r="U46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="V46" s="3">
         <v>7000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,117 +3350,123 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3400</v>
-      </c>
-      <c r="N48" s="3">
-        <v>3600</v>
       </c>
       <c r="O48" s="3">
         <v>3600</v>
       </c>
       <c r="P48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="Q48" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>3300</v>
       </c>
       <c r="R48" s="3">
         <v>3300</v>
       </c>
       <c r="S48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T48" s="3">
         <v>3100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E49" s="3">
         <v>9200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>2300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2200</v>
       </c>
       <c r="L49" s="3">
         <v>2200</v>
       </c>
       <c r="M49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="N49" s="3">
         <v>2300</v>
       </c>
       <c r="O49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="P49" s="3">
         <v>2400</v>
@@ -3364,22 +3475,22 @@
         <v>2400</v>
       </c>
       <c r="R49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S49" s="3">
         <v>2500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2300</v>
-      </c>
-      <c r="W49" s="3">
-        <v>2400</v>
       </c>
       <c r="X49" s="3">
         <v>2400</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,28 +3646,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>700</v>
+      </c>
+      <c r="E52" s="3">
         <v>600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>100</v>
-      </c>
-      <c r="I52" s="3">
-        <v>500</v>
       </c>
       <c r="J52" s="3">
         <v>500</v>
@@ -3559,13 +3679,13 @@
         <v>500</v>
       </c>
       <c r="L52" s="3">
+        <v>500</v>
+      </c>
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>400</v>
       </c>
       <c r="O52" s="3">
         <v>400</v>
@@ -3574,10 +3694,10 @@
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>300</v>
       </c>
       <c r="S52" s="3">
         <v>300</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E54" s="3">
         <v>42400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>37500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>33600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>13500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>10200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11700</v>
-      </c>
-      <c r="R54" s="3">
-        <v>12600</v>
       </c>
       <c r="S54" s="3">
         <v>12600</v>
       </c>
       <c r="T54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="U54" s="3">
         <v>12400</v>
-      </c>
-      <c r="U54" s="3">
-        <v>12500</v>
       </c>
       <c r="V54" s="3">
         <v>12500</v>
       </c>
       <c r="W54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="X54" s="3">
         <v>12700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>12900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3805,19 +3936,19 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
       </c>
       <c r="J57" s="3">
         <v>300</v>
@@ -3829,19 +3960,19 @@
         <v>300</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>300</v>
@@ -3850,11 +3981,11 @@
         <v>300</v>
       </c>
       <c r="T57" s="3">
+        <v>300</v>
+      </c>
+      <c r="U57" s="3">
         <v>200</v>
       </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
       <c r="V57" s="3">
         <v>0</v>
       </c>
@@ -3862,13 +3993,16 @@
         <v>0</v>
       </c>
       <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
         <v>100</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3878,23 +4012,23 @@
       <c r="E58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3902,8 +4036,8 @@
       <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
+      <c r="N58" s="3">
+        <v>100</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -3911,8 +4045,8 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3947,70 +4084,73 @@
         <v>6400</v>
       </c>
       <c r="E59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F59" s="3">
         <v>3600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1900</v>
       </c>
       <c r="X59" s="3">
         <v>1900</v>
       </c>
       <c r="Y59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4018,70 +4158,73 @@
         <v>6800</v>
       </c>
       <c r="E60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4092,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>200</v>
@@ -4107,7 +4250,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4151,8 +4294,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4163,28 +4309,28 @@
         <v>100</v>
       </c>
       <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
       </c>
       <c r="K62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>200</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -4201,8 +4347,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,8 +4590,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4444,70 +4602,73 @@
         <v>6900</v>
       </c>
       <c r="E66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-10000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-12500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-14800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-15800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-16300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-15900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-16000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-11900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-10300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-9900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E76" s="3">
         <v>35400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>33200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>7000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>9200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10700</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43585</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43496</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43404</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43312</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43220</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43131</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43039</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42947</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42855</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42766</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42674</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1200</v>
       </c>
       <c r="N81" s="3">
         <v>-1200</v>
       </c>
       <c r="O81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
       </c>
       <c r="V81" s="3">
         <v>-200</v>
       </c>
       <c r="W81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5615,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5426,7 +5625,7 @@
         <v>400</v>
       </c>
       <c r="E83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>300</v>
@@ -5435,28 +5634,28 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>300</v>
@@ -5468,7 +5667,7 @@
         <v>300</v>
       </c>
       <c r="S83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T83" s="3">
         <v>200</v>
@@ -5483,13 +5682,16 @@
         <v>200</v>
       </c>
       <c r="X83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E89" s="3">
         <v>2700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>4000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>100</v>
       </c>
       <c r="T89" s="3">
         <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-300</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,31 +6161,32 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
       </c>
       <c r="I91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -5977,43 +6198,46 @@
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-500</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-400</v>
       </c>
       <c r="Q91" s="3">
         <v>-400</v>
       </c>
       <c r="R91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S91" s="3">
         <v>-500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-400</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-300</v>
       </c>
       <c r="Y91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,19 +6381,22 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -6175,10 +6405,10 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -6190,43 +6420,46 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-300</v>
       </c>
       <c r="Y94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,41 +6779,44 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>7500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
@@ -6584,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -6602,40 +6848,43 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -6658,11 +6907,11 @@
         <v>0</v>
       </c>
       <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>2300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>11300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>7400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-400</v>
-      </c>
-      <c r="U102" s="3">
-        <v>-500</v>
       </c>
       <c r="V102" s="3">
         <v>-500</v>
       </c>
       <c r="W102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,191 +665,197 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43677</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43585</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43496</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43404</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43312</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43220</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43131</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43039</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42947</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42855</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42766</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42674</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5200</v>
-      </c>
-      <c r="G8" s="3">
-        <v>5300</v>
       </c>
       <c r="H8" s="3">
         <v>5300</v>
       </c>
       <c r="I8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="J8" s="3">
         <v>3800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2000</v>
       </c>
       <c r="N8" s="3">
         <v>2000</v>
       </c>
       <c r="O8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2600</v>
       </c>
       <c r="S8" s="3">
         <v>2600</v>
       </c>
       <c r="T8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="U8" s="3">
         <v>3000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2700</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2500</v>
       </c>
       <c r="W8" s="3">
         <v>2500</v>
       </c>
       <c r="X8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="Y8" s="3">
         <v>2600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E9" s="3">
         <v>300</v>
@@ -882,13 +888,13 @@
         <v>300</v>
       </c>
       <c r="O9" s="3">
+        <v>300</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
@@ -917,82 +923,88 @@
       <c r="Z9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="3">
         <v>6600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>4900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>5000</v>
       </c>
       <c r="H10" s="3">
         <v>5000</v>
       </c>
       <c r="I10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J10" s="3">
         <v>3500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
-      </c>
-      <c r="M10" s="3">
-        <v>1700</v>
       </c>
       <c r="N10" s="3">
         <v>1700</v>
       </c>
       <c r="O10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P10" s="3">
         <v>1500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2200</v>
       </c>
       <c r="S10" s="3">
         <v>2200</v>
       </c>
       <c r="T10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U10" s="3">
         <v>2600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2100</v>
       </c>
       <c r="W10" s="3">
         <v>2100</v>
       </c>
       <c r="X10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1205,8 +1224,8 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1214,18 +1233,18 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
@@ -1239,10 +1258,13 @@
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1253,7 +1275,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G15" s="3">
         <v>300</v>
@@ -1262,28 +1284,28 @@
         <v>300</v>
       </c>
       <c r="I15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J15" s="3">
         <v>400</v>
       </c>
       <c r="K15" s="3">
+        <v>400</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>400</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
       <c r="P15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
@@ -1295,7 +1317,7 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U15" s="3">
         <v>200</v>
@@ -1310,13 +1332,16 @@
         <v>200</v>
       </c>
       <c r="Y15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,49 +1558,49 @@
         <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1576,11 +1609,11 @@
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
@@ -1588,84 +1621,90 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>3400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>3000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>800</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-800</v>
       </c>
       <c r="O21" s="3">
         <v>-800</v>
       </c>
       <c r="P21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-700</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,103 +1777,109 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>3000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1200</v>
       </c>
       <c r="O23" s="3">
         <v>-1200</v>
       </c>
       <c r="P23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-200</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1860,11 +1905,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-200</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>2300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1200</v>
       </c>
       <c r="O26" s="3">
         <v>-1200</v>
       </c>
       <c r="P26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-200</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>2300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1200</v>
       </c>
       <c r="O27" s="3">
         <v>-1200</v>
       </c>
       <c r="P27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-200</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2211,8 +2271,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2229,11 +2289,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-400</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
@@ -2244,8 +2304,8 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X29" s="3">
         <v>0</v>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,49 +2482,49 @@
         <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2464,11 +2533,11 @@
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
@@ -2476,84 +2545,90 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>2300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1200</v>
       </c>
       <c r="O33" s="3">
         <v>-1200</v>
       </c>
       <c r="P33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-700</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-200</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>2300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1200</v>
       </c>
       <c r="O35" s="3">
         <v>-1200</v>
       </c>
       <c r="P35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-700</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-200</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43677</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43585</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43496</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43404</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43312</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43220</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43131</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43039</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42947</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42855</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42766</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42674</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E41" s="3">
         <v>30000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>24900</v>
       </c>
       <c r="G41" s="3">
         <v>24900</v>
       </c>
       <c r="H41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="I41" s="3">
         <v>13600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4300</v>
-      </c>
-      <c r="T41" s="3">
-        <v>4200</v>
       </c>
       <c r="U41" s="3">
         <v>4200</v>
       </c>
       <c r="V41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="W41" s="3">
         <v>4600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>5600</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>6000</v>
       </c>
       <c r="Z41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,82 +3072,88 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>3200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1100</v>
       </c>
       <c r="N43" s="3">
         <v>1100</v>
       </c>
       <c r="O43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P43" s="3">
         <v>1200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1600</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1700</v>
       </c>
       <c r="Z43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,31 +3226,34 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
@@ -3164,13 +3262,13 @@
         <v>200</v>
       </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>500</v>
-      </c>
-      <c r="O45" s="3">
-        <v>400</v>
       </c>
       <c r="P45" s="3">
         <v>400</v>
@@ -3179,7 +3277,7 @@
         <v>400</v>
       </c>
       <c r="R45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>600</v>
@@ -3191,96 +3289,102 @@
         <v>600</v>
       </c>
       <c r="V45" s="3">
+        <v>600</v>
+      </c>
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="X45" s="3">
-        <v>500</v>
       </c>
       <c r="Y45" s="3">
         <v>500</v>
       </c>
       <c r="Z45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E46" s="3">
         <v>33700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>27600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>27900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>16800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>4500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6500</v>
-      </c>
-      <c r="T46" s="3">
-        <v>6600</v>
       </c>
       <c r="U46" s="3">
         <v>6600</v>
       </c>
       <c r="V46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="W46" s="3">
         <v>7000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>7300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>7700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,123 +3457,129 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3400</v>
-      </c>
-      <c r="O48" s="3">
-        <v>3600</v>
       </c>
       <c r="P48" s="3">
         <v>3600</v>
       </c>
       <c r="Q48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="R48" s="3">
         <v>3500</v>
-      </c>
-      <c r="R48" s="3">
-        <v>3300</v>
       </c>
       <c r="S48" s="3">
         <v>3300</v>
       </c>
       <c r="T48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="U48" s="3">
         <v>3100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E49" s="3">
         <v>8700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>2300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>2400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>2200</v>
       </c>
       <c r="M49" s="3">
         <v>2200</v>
       </c>
       <c r="N49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="O49" s="3">
         <v>2300</v>
       </c>
       <c r="P49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="Q49" s="3">
         <v>2400</v>
@@ -3478,22 +3588,22 @@
         <v>2400</v>
       </c>
       <c r="S49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T49" s="3">
         <v>2500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2300</v>
-      </c>
-      <c r="X49" s="3">
-        <v>2400</v>
       </c>
       <c r="Y49" s="3">
         <v>2400</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,31 +3765,34 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
-      </c>
-      <c r="J52" s="3">
-        <v>500</v>
       </c>
       <c r="K52" s="3">
         <v>500</v>
@@ -3682,13 +3801,13 @@
         <v>500</v>
       </c>
       <c r="M52" s="3">
+        <v>500</v>
+      </c>
+      <c r="N52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
@@ -3697,10 +3816,10 @@
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>300</v>
       </c>
       <c r="T52" s="3">
         <v>300</v>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E54" s="3">
         <v>45000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>42400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>33600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>13500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>12000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>11000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>10200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>10800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>11400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11700</v>
-      </c>
-      <c r="S54" s="3">
-        <v>12600</v>
       </c>
       <c r="T54" s="3">
         <v>12600</v>
       </c>
       <c r="U54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="V54" s="3">
         <v>12400</v>
-      </c>
-      <c r="V54" s="3">
-        <v>12500</v>
       </c>
       <c r="W54" s="3">
         <v>12500</v>
       </c>
       <c r="X54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="Y54" s="3">
         <v>12700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>12900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,31 +4056,32 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>1400</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>300</v>
       </c>
       <c r="H57" s="3">
         <v>300</v>
       </c>
       <c r="I57" s="3">
+        <v>300</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
@@ -3963,19 +4093,19 @@
         <v>300</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
       </c>
       <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
@@ -3984,11 +4114,11 @@
         <v>300</v>
       </c>
       <c r="U57" s="3">
+        <v>300</v>
+      </c>
+      <c r="V57" s="3">
         <v>200</v>
       </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
       <c r="W57" s="3">
         <v>0</v>
       </c>
@@ -3996,13 +4126,16 @@
         <v>0</v>
       </c>
       <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
         <v>100</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4015,23 +4148,23 @@
       <c r="F58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -4039,8 +4172,8 @@
       <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
+      <c r="O58" s="3">
+        <v>100</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -4048,8 +4181,8 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -4075,156 +4208,165 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6400</v>
+        <v>12500</v>
       </c>
       <c r="E59" s="3">
         <v>6400</v>
       </c>
       <c r="F59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G59" s="3">
         <v>3600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1900</v>
       </c>
       <c r="Y59" s="3">
         <v>1900</v>
       </c>
       <c r="Z59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6800</v>
+        <v>13900</v>
       </c>
       <c r="E60" s="3">
         <v>6800</v>
       </c>
       <c r="F60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4238,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4253,7 +4395,7 @@
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4297,13 +4439,16 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
+        <v>2600</v>
       </c>
       <c r="E62" s="3">
         <v>100</v>
@@ -4312,28 +4457,28 @@
         <v>100</v>
       </c>
       <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K62" s="3">
         <v>100</v>
       </c>
       <c r="L62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>200</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -4350,8 +4495,8 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U62" s="3">
         <v>0</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6900</v>
+        <v>16500</v>
       </c>
       <c r="E66" s="3">
         <v>6900</v>
       </c>
       <c r="F66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-10000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-14800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-15800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-16300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-15900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-16000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-14000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-11900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-11600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-11300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-10300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-10100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-9600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E76" s="3">
         <v>38000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>35400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>33200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>9200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>9300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>10000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>10200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>10300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10700</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43677</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43585</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43496</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43404</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43312</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43220</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43131</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43039</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42947</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42855</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42766</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42674</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>2300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1200</v>
       </c>
       <c r="O81" s="3">
         <v>-1200</v>
       </c>
       <c r="P81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-700</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-200</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5628,7 +5826,7 @@
         <v>400</v>
       </c>
       <c r="F83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -5637,28 +5835,28 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>500</v>
-      </c>
-      <c r="N83" s="3">
-        <v>400</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
@@ -5670,7 +5868,7 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U83" s="3">
         <v>200</v>
@@ -5685,13 +5883,16 @@
         <v>200</v>
       </c>
       <c r="Y83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>3000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>4000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>1500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
-      </c>
-      <c r="T89" s="3">
-        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>100</v>
       </c>
       <c r="V89" s="3">
+        <v>100</v>
+      </c>
+      <c r="W89" s="3">
         <v>-300</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
         <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6171,25 +6391,25 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
       </c>
       <c r="J91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
@@ -6201,43 +6421,46 @@
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-400</v>
       </c>
       <c r="R91" s="3">
         <v>-400</v>
       </c>
       <c r="S91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T91" s="3">
         <v>-500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-300</v>
       </c>
       <c r="Z91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,22 +6610,25 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -6408,10 +6637,10 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -6423,43 +6652,46 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-300</v>
       </c>
       <c r="Z94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,8 +7024,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6791,35 +7036,35 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>7500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -6833,13 +7078,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -6851,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6865,29 +7113,29 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -6910,11 +7158,11 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -6930,78 +7178,84 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>2300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>11300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>7400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-400</v>
-      </c>
-      <c r="V102" s="3">
-        <v>-500</v>
       </c>
       <c r="W102" s="3">
         <v>-500</v>
       </c>
       <c r="X102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,203 +665,217 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43677</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43585</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43496</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43404</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43312</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43220</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43131</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43039</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42947</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42855</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42766</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42674</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7400</v>
+      </c>
+      <c r="F8" s="3">
         <v>6200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>5300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>2100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>2600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>2000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2400</v>
       </c>
       <c r="S8" s="3">
         <v>2600</v>
       </c>
       <c r="T8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U8" s="3">
         <v>2600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="W8" s="3">
         <v>3000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>2700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>2500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>2500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>2600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>2400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>600</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>300</v>
-      </c>
-      <c r="F9" s="3">
-        <v>300</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
@@ -891,7 +905,7 @@
         <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q9" s="3">
         <v>300</v>
@@ -900,7 +914,7 @@
         <v>400</v>
       </c>
       <c r="S9" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T9" s="3">
         <v>400</v>
@@ -926,85 +940,97 @@
       <c r="AA9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>4900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>5000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>5000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>3500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>1700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>2600</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>2300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>2000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1220,14 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1227,29 +1267,29 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1261,57 +1301,63 @@
         <v>0</v>
       </c>
       <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>400</v>
       </c>
       <c r="G15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
       </c>
       <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>400</v>
-      </c>
-      <c r="L15" s="3">
-        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
       <c r="P15" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3">
-        <v>300</v>
-      </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1320,10 +1366,10 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W15" s="3">
         <v>200</v>
@@ -1335,13 +1381,19 @@
         <v>200</v>
       </c>
       <c r="Z15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB15" s="3">
         <v>100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AC15" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1418,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>2800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2900</v>
-      </c>
-      <c r="P17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2800</v>
       </c>
       <c r="R17" s="3">
         <v>3000</v>
       </c>
       <c r="S17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U17" s="3">
         <v>2600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>2200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>2000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-200</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
       <c r="Z18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,28 +1615,30 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>-100</v>
@@ -1579,132 +1647,144 @@
         <v>100</v>
       </c>
       <c r="L20" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
       </c>
       <c r="R20" s="3">
         <v>-100</v>
       </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>3400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>3000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>2700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>800</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-700</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,112 +1860,124 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F23" s="3">
         <v>1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>3000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V23" s="3">
-        <v>-800</v>
       </c>
       <c r="W23" s="3">
         <v>-200</v>
       </c>
       <c r="X23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>200</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1908,14 +2000,14 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
         <v>-200</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
@@ -1934,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-800</v>
       </c>
       <c r="W26" s="3">
         <v>-200</v>
       </c>
       <c r="X26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-800</v>
       </c>
       <c r="W27" s="3">
         <v>-200</v>
       </c>
       <c r="X27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2274,11 +2396,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2292,14 +2414,14 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>-400</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
+      <c r="U29" s="3">
+        <v>-400</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2307,11 +2429,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,28 +2607,34 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
-      </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>100</v>
@@ -2503,132 +2643,144 @@
         <v>-100</v>
       </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
       </c>
       <c r="R32" s="3">
         <v>100</v>
       </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-800</v>
       </c>
       <c r="W33" s="3">
         <v>-200</v>
       </c>
       <c r="X33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-800</v>
       </c>
       <c r="W35" s="3">
         <v>-200</v>
       </c>
       <c r="X35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43677</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43585</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43496</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43404</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43312</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43220</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43131</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43039</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42947</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42855</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42766</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42674</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E41" s="3">
         <v>17100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="G41" s="3">
         <v>30000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>27200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>24900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>24900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>13600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>6300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>4600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>2700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>3600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>5600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>6000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,85 +3255,97 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>3200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1400</v>
       </c>
       <c r="R43" s="3">
         <v>1200</v>
       </c>
       <c r="S43" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="T43" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="U43" s="3">
         <v>1800</v>
       </c>
       <c r="V43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X43" s="3">
         <v>1900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>1700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>1700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,61 +3421,67 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>400</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
-      </c>
-      <c r="K45" s="3">
-        <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
+        <v>200</v>
+      </c>
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>500</v>
-      </c>
-      <c r="P45" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>400</v>
       </c>
       <c r="R45" s="3">
         <v>400</v>
       </c>
       <c r="S45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="T45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>600</v>
@@ -3292,99 +3490,111 @@
         <v>600</v>
       </c>
       <c r="W45" s="3">
+        <v>600</v>
+      </c>
+      <c r="X45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>19900</v>
+      </c>
+      <c r="F46" s="3">
         <v>20300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>33700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>30500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>27600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>27900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>16800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>6800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>5800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>3500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>3000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>3900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>4500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>5800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>7300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>7700</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>8200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,162 +3670,180 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>2800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>2900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>2600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>31800</v>
+      </c>
+      <c r="F49" s="3">
         <v>32600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>9200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2400</v>
       </c>
       <c r="I49" s="3">
         <v>2300</v>
       </c>
       <c r="J49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L49" s="3">
         <v>2100</v>
-      </c>
-      <c r="K49" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1900</v>
       </c>
       <c r="M49" s="3">
         <v>2200</v>
       </c>
       <c r="N49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>2300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R49" s="3">
-        <v>2400</v>
       </c>
       <c r="S49" s="3">
         <v>2400</v>
       </c>
       <c r="T49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="V49" s="3">
         <v>2500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>2600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2300</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>2400</v>
       </c>
       <c r="AA49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,64 +4002,70 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>5400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>500</v>
-      </c>
-      <c r="L52" s="3">
-        <v>500</v>
       </c>
       <c r="M52" s="3">
         <v>500</v>
       </c>
       <c r="N52" s="3">
+        <v>500</v>
+      </c>
+      <c r="O52" s="3">
+        <v>500</v>
+      </c>
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>100</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>400</v>
       </c>
       <c r="R52" s="3">
         <v>400</v>
       </c>
       <c r="S52" s="3">
+        <v>400</v>
+      </c>
+      <c r="T52" s="3">
+        <v>400</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>300</v>
-      </c>
-      <c r="U52" s="3">
-        <v>300</v>
       </c>
       <c r="V52" s="3">
         <v>300</v>
@@ -3845,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>54600</v>
+      </c>
+      <c r="F54" s="3">
         <v>55700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>45000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>42400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>37500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>33600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>13500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>12000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>11000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>8900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>9000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>10800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>11400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>12500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>12500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>12700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>12900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4317,10 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4066,28 +4328,28 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
@@ -4096,46 +4358,52 @@
         <v>300</v>
       </c>
       <c r="O57" s="3">
+        <v>300</v>
+      </c>
+      <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>300</v>
       </c>
       <c r="T57" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>300</v>
       </c>
       <c r="V57" s="3">
+        <v>300</v>
+      </c>
+      <c r="W57" s="3">
+        <v>300</v>
+      </c>
+      <c r="X57" s="3">
         <v>200</v>
       </c>
-      <c r="W57" s="3">
-        <v>0</v>
-      </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
       <c r="Y57" s="3">
         <v>0</v>
       </c>
       <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
         <v>100</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4151,44 +4419,44 @@
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>100</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
@@ -4211,150 +4479,162 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F59" s="3">
         <v>12500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>4700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2200</v>
-      </c>
-      <c r="W59" s="3">
-        <v>1900</v>
-      </c>
-      <c r="X59" s="3">
-        <v>2000</v>
       </c>
       <c r="Y59" s="3">
         <v>1900</v>
       </c>
       <c r="Z59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>1600</v>
       </c>
       <c r="R60" s="3">
         <v>2100</v>
       </c>
       <c r="S60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U60" s="3">
         <v>1700</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2200</v>
       </c>
       <c r="V60" s="3">
         <v>2400</v>
       </c>
       <c r="W60" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="X60" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Y60" s="3">
         <v>1900</v>
@@ -4363,15 +4643,21 @@
         <v>2000</v>
       </c>
       <c r="AA60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -4383,10 +4669,10 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
         <v>200</v>
@@ -4398,10 +4684,10 @@
         <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4442,49 +4728,55 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
         <v>2600</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>100</v>
       </c>
       <c r="G62" s="3">
         <v>100</v>
       </c>
       <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>100</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>200</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>8</v>
@@ -4498,11 +4790,11 @@
       <c r="T62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4811,14 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,73 +5060,79 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F66" s="3">
         <v>16500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1600</v>
       </c>
       <c r="R66" s="3">
         <v>2100</v>
       </c>
       <c r="S66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="T66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U66" s="3">
         <v>1700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U66" s="3">
-        <v>2200</v>
       </c>
       <c r="V66" s="3">
         <v>2400</v>
       </c>
       <c r="W66" s="3">
-        <v>1900</v>
+        <v>2200</v>
       </c>
       <c r="X66" s="3">
-        <v>2000</v>
+        <v>2400</v>
       </c>
       <c r="Y66" s="3">
         <v>1900</v>
@@ -4825,10 +5141,16 @@
         <v>2000</v>
       </c>
       <c r="AA66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-2400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-7600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-10000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-12500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-14800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-16300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-15900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-16000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-15200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-12800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-12600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-11900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-11600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-11300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-11200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-10300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-10100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-9900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>44200</v>
+      </c>
+      <c r="F76" s="3">
         <v>39100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>38000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>35400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>33200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>28200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>18000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>8900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>6700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>6100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>7000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>8100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>9200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>9300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>10000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>10200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>10300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>10000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>10600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>10500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>10700</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>10900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43677</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43585</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43496</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43404</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43312</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43220</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43131</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43039</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42947</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42855</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42766</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42674</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-800</v>
       </c>
       <c r="W81" s="3">
         <v>-200</v>
       </c>
       <c r="X81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,55 +6210,57 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>400</v>
       </c>
       <c r="G83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
       </c>
       <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
-        <v>300</v>
-      </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -5871,10 +6269,10 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W83" s="3">
         <v>200</v>
@@ -5886,13 +6284,19 @@
         <v>200</v>
       </c>
       <c r="Z83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>200</v>
+      </c>
+      <c r="F89" s="3">
         <v>5600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>4000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-400</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-300</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,40 +6822,42 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -6424,22 +6866,22 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>-400</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
-        <v>-500</v>
+        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-400</v>
       </c>
       <c r="S91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
-        <v>-500</v>
-      </c>
       <c r="U91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="V91" s="3">
         <v>-500</v>
@@ -6451,16 +6893,22 @@
         <v>-500</v>
       </c>
       <c r="Y91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,40 +7067,46 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-18500</v>
+        <v>-1300</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-18500</v>
       </c>
       <c r="G94" s="3">
-        <v>-4900</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-4900</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
@@ -6655,22 +7115,22 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-400</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-500</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-300</v>
       </c>
       <c r="V94" s="3">
         <v>-500</v>
@@ -6682,16 +7142,22 @@
         <v>-500</v>
       </c>
       <c r="Y94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,50 +7513,56 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>5100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -7081,17 +7573,17 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
@@ -7099,13 +7591,19 @@
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7113,10 +7611,10 @@
         <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
@@ -7125,10 +7623,10 @@
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -7137,10 +7635,10 @@
         <v>-100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -7161,14 +7659,14 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7181,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-12900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>2800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>11300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>7400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>1100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-900</v>
-      </c>
-      <c r="R102" s="3">
-        <v>200</v>
       </c>
       <c r="S102" s="3">
         <v>-900</v>
       </c>
       <c r="T102" s="3">
+        <v>200</v>
+      </c>
+      <c r="U102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="V102" s="3">
         <v>100</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-400</v>
       </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43677</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43585</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43496</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43404</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43312</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43220</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43131</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43039</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42947</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42855</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42766</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42674</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E8" s="3">
         <v>6900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5200</v>
-      </c>
-      <c r="J8" s="3">
-        <v>5300</v>
       </c>
       <c r="K8" s="3">
         <v>5300</v>
       </c>
       <c r="L8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M8" s="3">
         <v>3800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2600</v>
-      </c>
-      <c r="P8" s="3">
-        <v>2000</v>
       </c>
       <c r="Q8" s="3">
         <v>2000</v>
       </c>
       <c r="R8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="S8" s="3">
         <v>1900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>2600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>2600</v>
       </c>
       <c r="V8" s="3">
         <v>2600</v>
       </c>
       <c r="W8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="X8" s="3">
         <v>3000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>2700</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>2500</v>
       </c>
       <c r="Z8" s="3">
         <v>2500</v>
       </c>
       <c r="AA8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AB8" s="3">
         <v>2600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>2400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -875,10 +882,10 @@
         <v>600</v>
       </c>
       <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>300</v>
       </c>
       <c r="H9" s="3">
         <v>300</v>
@@ -911,13 +918,13 @@
         <v>300</v>
       </c>
       <c r="R9" s="3">
+        <v>300</v>
+      </c>
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>400</v>
       </c>
       <c r="U9" s="3">
         <v>400</v>
@@ -946,91 +953,97 @@
       <c r="AC9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E10" s="3">
         <v>6300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4900</v>
-      </c>
-      <c r="J10" s="3">
-        <v>5000</v>
       </c>
       <c r="K10" s="3">
         <v>5000</v>
       </c>
       <c r="L10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="3">
         <v>3500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>1700</v>
       </c>
       <c r="Q10" s="3">
         <v>1700</v>
       </c>
       <c r="R10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S10" s="3">
         <v>1500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2100</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2200</v>
       </c>
       <c r="V10" s="3">
         <v>2200</v>
       </c>
       <c r="W10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X10" s="3">
         <v>2600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2300</v>
-      </c>
-      <c r="Y10" s="3">
-        <v>2100</v>
       </c>
       <c r="Z10" s="3">
         <v>2100</v>
       </c>
       <c r="AA10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AB10" s="3">
         <v>2200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1273,8 +1293,8 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
+      <c r="R14" s="3">
+        <v>0</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
@@ -1282,18 +1302,18 @@
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
@@ -1307,10 +1327,13 @@
         <v>0</v>
       </c>
       <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,7 +1344,7 @@
         <v>800</v>
       </c>
       <c r="F15" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="G15" s="3">
         <v>400</v>
@@ -1330,7 +1353,7 @@
         <v>400</v>
       </c>
       <c r="I15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1339,28 +1362,28 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M15" s="3">
         <v>400</v>
       </c>
       <c r="N15" s="3">
+        <v>400</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>500</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>400</v>
       </c>
       <c r="R15" s="3">
         <v>400</v>
       </c>
       <c r="S15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>300</v>
@@ -1372,7 +1395,7 @@
         <v>300</v>
       </c>
       <c r="W15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X15" s="3">
         <v>200</v>
@@ -1387,13 +1410,16 @@
         <v>200</v>
       </c>
       <c r="AB15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1446,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E17" s="3">
         <v>7100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2300</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>4800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,16 +1650,17 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-100</v>
@@ -1635,49 +1669,49 @@
         <v>-100</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U20" s="3">
         <v>-100</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1686,11 +1720,11 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
@@ -1698,93 +1732,99 @@
         <v>0</v>
       </c>
       <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>5500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>3400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-800</v>
       </c>
       <c r="R21" s="3">
         <v>-800</v>
       </c>
       <c r="S21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-700</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>300</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,121 +1906,127 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>4700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>3000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-1200</v>
       </c>
       <c r="R23" s="3">
         <v>-1200</v>
       </c>
       <c r="S23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-200</v>
       </c>
       <c r="Z23" s="3">
         <v>-200</v>
       </c>
       <c r="AA23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>300</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -2006,11 +2052,11 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
         <v>-200</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>4500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-1200</v>
       </c>
       <c r="R26" s="3">
         <v>-1200</v>
       </c>
       <c r="S26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-200</v>
       </c>
       <c r="Z26" s="3">
         <v>-200</v>
       </c>
       <c r="AA26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>4500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-1200</v>
       </c>
       <c r="R27" s="3">
         <v>-1200</v>
       </c>
       <c r="S27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-200</v>
       </c>
       <c r="Z27" s="3">
         <v>-200</v>
       </c>
       <c r="AA27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2402,8 +2463,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2420,11 +2481,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-400</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2435,8 +2496,8 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,16 +2680,19 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>100</v>
@@ -2631,49 +2701,49 @@
         <v>100</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
         <v>100</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2682,11 +2752,11 @@
         <v>0</v>
       </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
@@ -2694,93 +2764,99 @@
         <v>0</v>
       </c>
       <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>4500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-1200</v>
       </c>
       <c r="R33" s="3">
         <v>-1200</v>
       </c>
       <c r="S33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-200</v>
       </c>
       <c r="Z33" s="3">
         <v>-200</v>
       </c>
       <c r="AA33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>4500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-1200</v>
       </c>
       <c r="R35" s="3">
         <v>-1200</v>
       </c>
       <c r="S35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-200</v>
       </c>
       <c r="Z35" s="3">
         <v>-200</v>
       </c>
       <c r="AA35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43677</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43585</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43496</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43404</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43312</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43220</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43131</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43039</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42947</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42855</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42766</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42674</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E41" s="3">
         <v>18400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>17100</v>
       </c>
       <c r="F41" s="3">
         <v>17100</v>
       </c>
       <c r="G41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="H41" s="3">
         <v>30000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>24900</v>
       </c>
       <c r="J41" s="3">
         <v>24900</v>
       </c>
       <c r="K41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="L41" s="3">
         <v>13600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>5100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4300</v>
-      </c>
-      <c r="W41" s="3">
-        <v>4200</v>
       </c>
       <c r="X41" s="3">
         <v>4200</v>
       </c>
       <c r="Y41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="Z41" s="3">
         <v>4600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5600</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>6000</v>
       </c>
       <c r="AC41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,91 +3351,97 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1100</v>
       </c>
       <c r="Q43" s="3">
         <v>1100</v>
       </c>
       <c r="R43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S43" s="3">
         <v>1200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1600</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>1700</v>
       </c>
       <c r="AC43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,40 +3523,43 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>500</v>
-      </c>
-      <c r="G45" s="3">
-        <v>400</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
         <v>300</v>
       </c>
       <c r="M45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
@@ -3469,13 +3568,13 @@
         <v>200</v>
       </c>
       <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>500</v>
-      </c>
-      <c r="R45" s="3">
-        <v>400</v>
       </c>
       <c r="S45" s="3">
         <v>400</v>
@@ -3484,7 +3583,7 @@
         <v>400</v>
       </c>
       <c r="U45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="V45" s="3">
         <v>600</v>
@@ -3496,105 +3595,111 @@
         <v>600</v>
       </c>
       <c r="Y45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
-      </c>
-      <c r="AA45" s="3">
-        <v>500</v>
       </c>
       <c r="AB45" s="3">
         <v>500</v>
       </c>
       <c r="AC45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E46" s="3">
         <v>21500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>19900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>20300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>33700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>27600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>16800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>4500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6500</v>
-      </c>
-      <c r="W46" s="3">
-        <v>6600</v>
       </c>
       <c r="X46" s="3">
         <v>6600</v>
       </c>
       <c r="Y46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="Z46" s="3">
         <v>7000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>8200</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,141 +3781,147 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1900</v>
       </c>
       <c r="F48" s="3">
         <v>1900</v>
       </c>
       <c r="G48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3400</v>
-      </c>
-      <c r="R48" s="3">
-        <v>3600</v>
       </c>
       <c r="S48" s="3">
         <v>3600</v>
       </c>
       <c r="T48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="U48" s="3">
         <v>3500</v>
-      </c>
-      <c r="U48" s="3">
-        <v>3300</v>
       </c>
       <c r="V48" s="3">
         <v>3300</v>
       </c>
       <c r="W48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X48" s="3">
         <v>3100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E49" s="3">
         <v>31100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>32600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>8700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>9200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>2300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1900</v>
-      </c>
-      <c r="O49" s="3">
-        <v>2200</v>
       </c>
       <c r="P49" s="3">
         <v>2200</v>
       </c>
       <c r="Q49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="R49" s="3">
         <v>2300</v>
       </c>
       <c r="S49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="T49" s="3">
         <v>2400</v>
@@ -3819,22 +3930,22 @@
         <v>2400</v>
       </c>
       <c r="V49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W49" s="3">
         <v>2500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2300</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>2400</v>
       </c>
       <c r="AB49" s="3">
         <v>2400</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,40 +4125,43 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E52" s="3">
         <v>1100</v>
       </c>
       <c r="F52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>500</v>
       </c>
       <c r="N52" s="3">
         <v>500</v>
@@ -4050,13 +4170,13 @@
         <v>500</v>
       </c>
       <c r="P52" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>100</v>
-      </c>
-      <c r="R52" s="3">
-        <v>400</v>
       </c>
       <c r="S52" s="3">
         <v>400</v>
@@ -4065,10 +4185,10 @@
         <v>400</v>
       </c>
       <c r="U52" s="3">
+        <v>400</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>300</v>
       </c>
       <c r="W52" s="3">
         <v>300</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>55300</v>
+      </c>
+      <c r="E54" s="3">
         <v>55600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>54600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>45000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>42400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>37500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>33600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>21800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>13500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>11400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>12600</v>
       </c>
       <c r="W54" s="3">
         <v>12600</v>
       </c>
       <c r="X54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="Y54" s="3">
         <v>12400</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>12500</v>
       </c>
       <c r="Z54" s="3">
         <v>12500</v>
       </c>
       <c r="AA54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="AB54" s="3">
         <v>12700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>12900</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4328,31 +4459,31 @@
         <v>1400</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>300</v>
       </c>
       <c r="K57" s="3">
         <v>300</v>
       </c>
       <c r="L57" s="3">
+        <v>300</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>300</v>
       </c>
       <c r="N57" s="3">
         <v>300</v>
@@ -4364,19 +4495,19 @@
         <v>300</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>300</v>
       </c>
       <c r="V57" s="3">
         <v>300</v>
@@ -4385,11 +4516,11 @@
         <v>300</v>
       </c>
       <c r="X57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y57" s="3">
         <v>200</v>
       </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
       <c r="Z57" s="3">
         <v>0</v>
       </c>
@@ -4397,13 +4528,16 @@
         <v>0</v>
       </c>
       <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
         <v>100</v>
       </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4425,23 +4559,23 @@
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -4449,8 +4583,8 @@
       <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
+      <c r="R58" s="3">
+        <v>100</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
@@ -4458,8 +4592,8 @@
       <c r="T58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -4485,174 +4619,183 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E59" s="3">
         <v>6400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>12500</v>
-      </c>
-      <c r="G59" s="3">
-        <v>6400</v>
       </c>
       <c r="H59" s="3">
         <v>6400</v>
       </c>
       <c r="I59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J59" s="3">
         <v>3600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>1900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2000</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>1900</v>
       </c>
       <c r="AB59" s="3">
         <v>1900</v>
       </c>
       <c r="AC59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AD59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>8700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6800</v>
       </c>
       <c r="H60" s="3">
         <v>6800</v>
       </c>
       <c r="I60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4660,7 +4803,7 @@
         <v>2000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -4675,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
@@ -4690,7 +4833,7 @@
         <v>200</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -4734,22 +4877,25 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
         <v>1800</v>
       </c>
       <c r="F62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G62" s="3">
         <v>2600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>100</v>
       </c>
       <c r="H62" s="3">
         <v>100</v>
@@ -4758,28 +4904,28 @@
         <v>100</v>
       </c>
       <c r="J62" s="3">
+        <v>100</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>100</v>
       </c>
       <c r="O62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P62" s="3">
         <v>200</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="Q62" s="3">
+        <v>200</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4796,8 +4942,8 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E66" s="3">
         <v>11600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>16500</v>
-      </c>
-      <c r="G66" s="3">
-        <v>6900</v>
       </c>
       <c r="H66" s="3">
         <v>6900</v>
       </c>
       <c r="I66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E72" s="3">
         <v>2000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-7600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-10000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-16300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-12800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-11900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-10300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-10100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-9900</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E76" s="3">
         <v>44000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>39100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>38000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>35400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>33200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>8900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>7000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>8100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>9200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>10000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10700</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43677</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43585</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43496</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43404</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43312</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43220</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43131</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43039</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42947</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42855</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42766</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42674</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>4500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-1200</v>
       </c>
       <c r="R81" s="3">
         <v>-1200</v>
       </c>
       <c r="S81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-200</v>
       </c>
       <c r="Z81" s="3">
         <v>-200</v>
       </c>
       <c r="AA81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,10 +6420,10 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
-      </c>
-      <c r="F83" s="3">
-        <v>400</v>
       </c>
       <c r="G83" s="3">
         <v>400</v>
@@ -6233,7 +6432,7 @@
         <v>400</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -6242,28 +6441,28 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>400</v>
       </c>
       <c r="R83" s="3">
         <v>400</v>
       </c>
       <c r="S83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>300</v>
@@ -6275,7 +6474,7 @@
         <v>300</v>
       </c>
       <c r="W83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X83" s="3">
         <v>200</v>
@@ -6290,13 +6489,16 @@
         <v>200</v>
       </c>
       <c r="AB83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>4000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>500</v>
-      </c>
-      <c r="W89" s="3">
-        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>100</v>
       </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-300</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
         <v>0</v>
       </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,43 +7044,44 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-1300</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-200</v>
       </c>
       <c r="M91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-200</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -6872,43 +7093,46 @@
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-500</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-400</v>
       </c>
       <c r="U91" s="3">
         <v>-400</v>
       </c>
       <c r="V91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W91" s="3">
         <v>-500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-300</v>
       </c>
       <c r="AC91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,31 +7300,34 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -7106,10 +7336,10 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-200</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -7121,43 +7351,46 @@
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-500</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>-300</v>
       </c>
       <c r="AC94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,17 +7762,20 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E100" s="3">
         <v>1700</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7537,35 +7783,35 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>7500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -7579,13 +7825,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y100" s="3">
         <v>0</v>
@@ -7597,52 +7843,55 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -7665,11 +7914,11 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-12900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2300</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>11300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>7400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>-500</v>
       </c>
       <c r="Z102" s="3">
         <v>-500</v>
       </c>
       <c r="AA102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-400</v>
       </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,224 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43677</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43585</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43496</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43404</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43312</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43220</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43131</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43039</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42947</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42855</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42766</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42674</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E8" s="3">
         <v>7000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>7400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5200</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5300</v>
       </c>
       <c r="L8" s="3">
         <v>5300</v>
       </c>
       <c r="M8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N8" s="3">
         <v>3800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>2000</v>
       </c>
       <c r="R8" s="3">
         <v>2000</v>
       </c>
       <c r="S8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="T8" s="3">
         <v>1900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>2600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>2600</v>
       </c>
       <c r="W8" s="3">
         <v>2600</v>
       </c>
       <c r="X8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>3000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>2700</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>2500</v>
       </c>
       <c r="AA8" s="3">
         <v>2500</v>
       </c>
       <c r="AB8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AC8" s="3">
         <v>2600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>2400</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
         <v>600</v>
@@ -885,10 +891,10 @@
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
-      </c>
-      <c r="H9" s="3">
-        <v>300</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -921,13 +927,13 @@
         <v>300</v>
       </c>
       <c r="S9" s="3">
+        <v>300</v>
+      </c>
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
-      </c>
-      <c r="U9" s="3">
-        <v>400</v>
       </c>
       <c r="V9" s="3">
         <v>400</v>
@@ -956,94 +962,100 @@
       <c r="AD9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E10" s="3">
         <v>6400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>5800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>4900</v>
-      </c>
-      <c r="K10" s="3">
-        <v>5000</v>
       </c>
       <c r="L10" s="3">
         <v>5000</v>
       </c>
       <c r="M10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="N10" s="3">
         <v>3500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>1700</v>
       </c>
       <c r="R10" s="3">
         <v>1700</v>
       </c>
       <c r="S10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T10" s="3">
         <v>1500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2200</v>
       </c>
       <c r="W10" s="3">
         <v>2200</v>
       </c>
       <c r="X10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>2600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>2300</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>2100</v>
       </c>
       <c r="AA10" s="3">
         <v>2100</v>
       </c>
       <c r="AB10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AC10" s="3">
         <v>2200</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>2000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,31 +1262,34 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>8700</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1296,8 +1315,8 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>8</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
@@ -1305,18 +1324,18 @@
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
         <v>0</v>
       </c>
@@ -1330,15 +1349,18 @@
         <v>0</v>
       </c>
       <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E15" s="3">
         <v>800</v>
@@ -1347,7 +1369,7 @@
         <v>800</v>
       </c>
       <c r="G15" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>400</v>
@@ -1356,7 +1378,7 @@
         <v>400</v>
       </c>
       <c r="J15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K15" s="3">
         <v>300</v>
@@ -1365,28 +1387,28 @@
         <v>300</v>
       </c>
       <c r="M15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N15" s="3">
         <v>400</v>
       </c>
       <c r="O15" s="3">
+        <v>400</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>500</v>
-      </c>
-      <c r="R15" s="3">
-        <v>400</v>
       </c>
       <c r="S15" s="3">
         <v>400</v>
       </c>
       <c r="T15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U15" s="3">
         <v>300</v>
@@ -1398,7 +1420,7 @@
         <v>300</v>
       </c>
       <c r="X15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y15" s="3">
         <v>200</v>
@@ -1413,13 +1435,16 @@
         <v>200</v>
       </c>
       <c r="AC15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E17" s="3">
         <v>5500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2700</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2900</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2300</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>4800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-300</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,19 +1683,20 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-100</v>
@@ -1672,49 +1705,49 @@
         <v>-100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V20" s="3">
         <v>-100</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -1723,11 +1756,11 @@
         <v>0</v>
       </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
@@ -1735,96 +1768,102 @@
         <v>0</v>
       </c>
       <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E21" s="3">
         <v>2500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>5500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>3400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-800</v>
       </c>
       <c r="S21" s="3">
         <v>-800</v>
       </c>
       <c r="T21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-700</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>300</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1909,127 +1948,133 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E23" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>4700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>3000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-1200</v>
       </c>
       <c r="S23" s="3">
         <v>-1200</v>
       </c>
       <c r="T23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-200</v>
       </c>
       <c r="AA23" s="3">
         <v>-200</v>
       </c>
       <c r="AB23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>200</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>300</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -2055,11 +2100,11 @@
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>-200</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -2081,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>4500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-1200</v>
       </c>
       <c r="S26" s="3">
         <v>-1200</v>
       </c>
       <c r="T26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-200</v>
       </c>
       <c r="AA26" s="3">
         <v>-200</v>
       </c>
       <c r="AB26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>200</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>4500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-1200</v>
       </c>
       <c r="S27" s="3">
         <v>-1200</v>
       </c>
       <c r="T27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-200</v>
       </c>
       <c r="AA27" s="3">
         <v>-200</v>
       </c>
       <c r="AB27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>200</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2466,8 +2526,8 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -2484,11 +2544,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-400</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2499,8 +2559,8 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA29" s="3">
-        <v>0</v>
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AB29" s="3">
         <v>0</v>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,19 +2749,22 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>100</v>
@@ -2704,49 +2773,49 @@
         <v>100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V32" s="3">
         <v>100</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X32" s="3">
         <v>0</v>
@@ -2755,11 +2824,11 @@
         <v>0</v>
       </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
@@ -2767,96 +2836,102 @@
         <v>0</v>
       </c>
       <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>4500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-1200</v>
       </c>
       <c r="S33" s="3">
         <v>-1200</v>
       </c>
       <c r="T33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-700</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
       </c>
       <c r="W33" s="3">
         <v>-300</v>
       </c>
       <c r="X33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-200</v>
       </c>
       <c r="AA33" s="3">
         <v>-200</v>
       </c>
       <c r="AB33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>200</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>4500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-1200</v>
       </c>
       <c r="S35" s="3">
         <v>-1200</v>
       </c>
       <c r="T35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-700</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
       </c>
       <c r="W35" s="3">
         <v>-300</v>
       </c>
       <c r="X35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-200</v>
       </c>
       <c r="AA35" s="3">
         <v>-200</v>
       </c>
       <c r="AB35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>200</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43677</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43585</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43496</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43404</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43312</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43220</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43131</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43039</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42947</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42855</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42766</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42674</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E41" s="3">
         <v>17500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>18400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>17100</v>
       </c>
       <c r="G41" s="3">
         <v>17100</v>
       </c>
       <c r="H41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="I41" s="3">
         <v>30000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>24900</v>
       </c>
       <c r="K41" s="3">
         <v>24900</v>
       </c>
       <c r="L41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="M41" s="3">
         <v>13600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4300</v>
-      </c>
-      <c r="X41" s="3">
-        <v>4200</v>
       </c>
       <c r="Y41" s="3">
         <v>4200</v>
       </c>
       <c r="Z41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AA41" s="3">
         <v>4600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5100</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5600</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>6000</v>
       </c>
       <c r="AD41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,94 +3443,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1100</v>
       </c>
       <c r="R43" s="3">
         <v>1100</v>
       </c>
       <c r="S43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1600</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>1700</v>
       </c>
       <c r="AD43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3526,43 +3621,46 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
       <c r="N45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
@@ -3571,13 +3669,13 @@
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>500</v>
-      </c>
-      <c r="S45" s="3">
-        <v>400</v>
       </c>
       <c r="T45" s="3">
         <v>400</v>
@@ -3586,7 +3684,7 @@
         <v>400</v>
       </c>
       <c r="V45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="W45" s="3">
         <v>600</v>
@@ -3598,108 +3696,114 @@
         <v>600</v>
       </c>
       <c r="Z45" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>400</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>500</v>
       </c>
       <c r="AC45" s="3">
         <v>500</v>
       </c>
       <c r="AD45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AE45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E46" s="3">
         <v>21600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>19900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>20300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>33700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>30500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>27600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>16800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>4500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6500</v>
-      </c>
-      <c r="X46" s="3">
-        <v>6600</v>
       </c>
       <c r="Y46" s="3">
         <v>6600</v>
       </c>
       <c r="Z46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="AA46" s="3">
         <v>7000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>7300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8200</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,147 +3888,153 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1900</v>
       </c>
       <c r="G48" s="3">
         <v>1900</v>
       </c>
       <c r="H48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3400</v>
-      </c>
-      <c r="S48" s="3">
-        <v>3600</v>
       </c>
       <c r="T48" s="3">
         <v>3600</v>
       </c>
       <c r="U48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="V48" s="3">
         <v>3500</v>
-      </c>
-      <c r="V48" s="3">
-        <v>3300</v>
       </c>
       <c r="W48" s="3">
         <v>3300</v>
       </c>
       <c r="X48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Y48" s="3">
         <v>3100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2100</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E49" s="3">
         <v>30600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>31100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>32600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>8700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>9200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>2300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1900</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2200</v>
       </c>
       <c r="Q49" s="3">
         <v>2200</v>
       </c>
       <c r="R49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="S49" s="3">
         <v>2300</v>
       </c>
       <c r="T49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="U49" s="3">
         <v>2400</v>
@@ -3933,22 +4043,22 @@
         <v>2400</v>
       </c>
       <c r="W49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="X49" s="3">
         <v>2500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2300</v>
-      </c>
-      <c r="AB49" s="3">
-        <v>2400</v>
       </c>
       <c r="AC49" s="3">
         <v>2400</v>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,43 +4244,46 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1100</v>
       </c>
       <c r="F52" s="3">
         <v>1100</v>
       </c>
       <c r="G52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>100</v>
-      </c>
-      <c r="N52" s="3">
-        <v>500</v>
       </c>
       <c r="O52" s="3">
         <v>500</v>
@@ -4173,13 +4292,13 @@
         <v>500</v>
       </c>
       <c r="Q52" s="3">
+        <v>500</v>
+      </c>
+      <c r="R52" s="3">
         <v>600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>100</v>
-      </c>
-      <c r="S52" s="3">
-        <v>400</v>
       </c>
       <c r="T52" s="3">
         <v>400</v>
@@ -4188,10 +4307,10 @@
         <v>400</v>
       </c>
       <c r="V52" s="3">
+        <v>400</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
-      </c>
-      <c r="W52" s="3">
-        <v>300</v>
       </c>
       <c r="X52" s="3">
         <v>300</v>
@@ -4214,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>47600</v>
+      </c>
+      <c r="E54" s="3">
         <v>55300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>54600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>55700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>45000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>42400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>33600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>21800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>13500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>8900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>9000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11700</v>
-      </c>
-      <c r="W54" s="3">
-        <v>12600</v>
       </c>
       <c r="X54" s="3">
         <v>12600</v>
       </c>
       <c r="Y54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="Z54" s="3">
         <v>12400</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>12500</v>
       </c>
       <c r="AA54" s="3">
         <v>12500</v>
       </c>
       <c r="AB54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="AC54" s="3">
         <v>12700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>12900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,43 +4579,44 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
         <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
@@ -4498,19 +4628,19 @@
         <v>300</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S57" s="3">
         <v>200</v>
       </c>
       <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>300</v>
       </c>
       <c r="W57" s="3">
         <v>300</v>
@@ -4519,11 +4649,11 @@
         <v>300</v>
       </c>
       <c r="Y57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z57" s="3">
         <v>200</v>
       </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
       <c r="AA57" s="3">
         <v>0</v>
       </c>
@@ -4531,54 +4661,57 @@
         <v>0</v>
       </c>
       <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
         <v>100</v>
       </c>
-      <c r="AD57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4586,8 +4719,8 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
+      <c r="S58" s="3">
+        <v>100</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -4595,8 +4728,8 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4622,180 +4755,189 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E59" s="3">
         <v>6000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>12500</v>
-      </c>
-      <c r="H59" s="3">
-        <v>6400</v>
       </c>
       <c r="I59" s="3">
         <v>6400</v>
       </c>
       <c r="J59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="K59" s="3">
         <v>3600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>1900</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2000</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>1900</v>
       </c>
       <c r="AC59" s="3">
         <v>1900</v>
       </c>
       <c r="AD59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AE59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E60" s="3">
         <v>7400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>8700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6800</v>
       </c>
       <c r="I60" s="3">
         <v>6800</v>
       </c>
       <c r="J60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1900</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>2000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>2000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4806,7 +4948,7 @@
         <v>2000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -4821,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L61" s="3">
         <v>200</v>
@@ -4836,7 +4978,7 @@
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4880,25 +5022,28 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
         <v>1800</v>
       </c>
       <c r="G62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H62" s="3">
         <v>2600</v>
-      </c>
-      <c r="H62" s="3">
-        <v>100</v>
       </c>
       <c r="I62" s="3">
         <v>100</v>
@@ -4907,28 +5052,28 @@
         <v>100</v>
       </c>
       <c r="K62" s="3">
+        <v>100</v>
+      </c>
+      <c r="L62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O62" s="3">
         <v>100</v>
       </c>
       <c r="P62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q62" s="3">
         <v>200</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>200</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -4945,8 +5090,8 @@
       <c r="W62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4966,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E66" s="3">
         <v>9300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>11600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>10400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>16500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>6900</v>
       </c>
       <c r="I66" s="3">
         <v>6900</v>
       </c>
       <c r="J66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>2000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>2000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E72" s="3">
         <v>3600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-7600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-10000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-16300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-16000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-14000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-12800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-11900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-10300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-9900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E76" s="3">
         <v>45900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>44000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>39100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>38000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>35400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>33200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>8900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>7900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>6700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>7000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>8100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>9200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>10000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10500</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10700</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43677</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43585</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43496</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43404</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43312</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43220</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43131</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43039</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42947</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42855</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42766</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42674</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>4500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-1200</v>
       </c>
       <c r="S81" s="3">
         <v>-1200</v>
       </c>
       <c r="T81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-700</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
       </c>
       <c r="W81" s="3">
         <v>-300</v>
       </c>
       <c r="X81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-200</v>
       </c>
       <c r="AA81" s="3">
         <v>-200</v>
       </c>
       <c r="AB81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>200</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6423,10 +6621,10 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
@@ -6435,7 +6633,7 @@
         <v>400</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>300</v>
@@ -6444,28 +6642,28 @@
         <v>300</v>
       </c>
       <c r="M83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N83" s="3">
         <v>400</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500</v>
-      </c>
-      <c r="R83" s="3">
-        <v>400</v>
       </c>
       <c r="S83" s="3">
         <v>400</v>
       </c>
       <c r="T83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U83" s="3">
         <v>300</v>
@@ -6477,7 +6675,7 @@
         <v>300</v>
       </c>
       <c r="X83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y83" s="3">
         <v>200</v>
@@ -6492,13 +6690,16 @@
         <v>200</v>
       </c>
       <c r="AC83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>4000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
-      </c>
-      <c r="X89" s="3">
-        <v>100</v>
       </c>
       <c r="Y89" s="3">
         <v>100</v>
       </c>
       <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-300</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
         <v>0</v>
       </c>
       <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
         <v>200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7054,37 +7274,37 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -7096,43 +7316,46 @@
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-500</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-400</v>
       </c>
       <c r="V91" s="3">
         <v>-400</v>
       </c>
       <c r="W91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="X91" s="3">
         <v>-500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-300</v>
       </c>
       <c r="AD91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7312,25 +7541,25 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-200</v>
@@ -7339,10 +7568,10 @@
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -7354,43 +7583,46 @@
         <v>-200</v>
       </c>
       <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-400</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>-300</v>
       </c>
       <c r="AD94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,20 +8007,23 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1700</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -7786,35 +8031,35 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>7500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7828,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7846,55 +8091,58 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -7917,11 +8165,11 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
@@ -7937,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>1300</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-12900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>11300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>7400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>-500</v>
       </c>
       <c r="AA102" s="3">
         <v>-500</v>
       </c>
       <c r="AB102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AC102" s="3">
         <v>-400</v>
       </c>
-      <c r="AC102" s="3">
-        <v>0</v>
-      </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>2000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ZDGE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>ZDGE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,226 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43677</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43585</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43496</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43404</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43312</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43220</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43131</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43039</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42947</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42855</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42766</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42674</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E8" s="3">
         <v>6700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>7000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>6900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5200</v>
-      </c>
-      <c r="L8" s="3">
-        <v>5300</v>
       </c>
       <c r="M8" s="3">
         <v>5300</v>
       </c>
       <c r="N8" s="3">
+        <v>5300</v>
+      </c>
+      <c r="O8" s="3">
         <v>3800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>2100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>2600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>2000</v>
       </c>
       <c r="S8" s="3">
         <v>2000</v>
       </c>
       <c r="T8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="U8" s="3">
         <v>1900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>2600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>2400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>2600</v>
       </c>
       <c r="X8" s="3">
         <v>2600</v>
       </c>
       <c r="Y8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="Z8" s="3">
         <v>3000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>2700</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>2500</v>
       </c>
       <c r="AB8" s="3">
         <v>2500</v>
       </c>
       <c r="AC8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="AD8" s="3">
         <v>2600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>2400</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -885,7 +892,7 @@
         <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
@@ -894,10 +901,10 @@
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>300</v>
@@ -930,13 +937,13 @@
         <v>300</v>
       </c>
       <c r="T9" s="3">
+        <v>300</v>
+      </c>
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>400</v>
       </c>
       <c r="W9" s="3">
         <v>400</v>
@@ -965,97 +972,103 @@
       <c r="AE9" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E10" s="3">
         <v>6200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>6400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>6600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>5700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4900</v>
-      </c>
-      <c r="L10" s="3">
-        <v>5000</v>
       </c>
       <c r="M10" s="3">
         <v>5000</v>
       </c>
       <c r="N10" s="3">
+        <v>5000</v>
+      </c>
+      <c r="O10" s="3">
         <v>3500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>1700</v>
       </c>
       <c r="S10" s="3">
         <v>1700</v>
       </c>
       <c r="T10" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U10" s="3">
         <v>1500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>2200</v>
       </c>
       <c r="X10" s="3">
         <v>2200</v>
       </c>
       <c r="Y10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2300</v>
-      </c>
-      <c r="AA10" s="3">
-        <v>2100</v>
       </c>
       <c r="AB10" s="3">
         <v>2100</v>
       </c>
       <c r="AC10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AD10" s="3">
         <v>2200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>2000</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,16 +1282,19 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>8700</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1291,8 +1311,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1318,8 +1338,8 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
@@ -1327,18 +1347,18 @@
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
       <c r="AA14" s="3">
         <v>0</v>
       </c>
@@ -1352,18 +1372,21 @@
         <v>0</v>
       </c>
       <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
-      </c>
-      <c r="E15" s="3">
-        <v>800</v>
       </c>
       <c r="F15" s="3">
         <v>800</v>
@@ -1372,7 +1395,7 @@
         <v>800</v>
       </c>
       <c r="H15" s="3">
-        <v>400</v>
+        <v>800</v>
       </c>
       <c r="I15" s="3">
         <v>400</v>
@@ -1381,7 +1404,7 @@
         <v>400</v>
       </c>
       <c r="K15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L15" s="3">
         <v>300</v>
@@ -1390,28 +1413,28 @@
         <v>300</v>
       </c>
       <c r="N15" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>400</v>
       </c>
       <c r="P15" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>500</v>
-      </c>
-      <c r="S15" s="3">
-        <v>400</v>
       </c>
       <c r="T15" s="3">
         <v>400</v>
       </c>
       <c r="U15" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V15" s="3">
         <v>300</v>
@@ -1423,7 +1446,7 @@
         <v>300</v>
       </c>
       <c r="Y15" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z15" s="3">
         <v>200</v>
@@ -1438,13 +1461,16 @@
         <v>200</v>
       </c>
       <c r="AD15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE15" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E17" s="3">
         <v>15100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2700</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>2900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>2300</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>3200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>4800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>3100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-1100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>100</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,22 +1717,23 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>-100</v>
@@ -1708,49 +1742,49 @@
         <v>-100</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W20" s="3">
         <v>-100</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1759,11 +1793,11 @@
         <v>0</v>
       </c>
       <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
       <c r="AC20" s="3">
         <v>0</v>
       </c>
@@ -1771,99 +1805,105 @@
         <v>0</v>
       </c>
       <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>5500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>3400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-800</v>
       </c>
       <c r="T21" s="3">
         <v>-800</v>
       </c>
       <c r="U21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-700</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>-200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>300</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>-700</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,133 +1991,139 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>4700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>3000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-1200</v>
       </c>
       <c r="T23" s="3">
         <v>-1200</v>
       </c>
       <c r="U23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-200</v>
       </c>
       <c r="AB23" s="3">
         <v>-200</v>
       </c>
       <c r="AC23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>200</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>300</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -2103,11 +2149,11 @@
         <v>0</v>
       </c>
       <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-200</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
       <c r="Y24" s="3">
         <v>0</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>4500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-1200</v>
       </c>
       <c r="T26" s="3">
         <v>-1200</v>
       </c>
       <c r="U26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-200</v>
       </c>
       <c r="AB26" s="3">
         <v>-200</v>
       </c>
       <c r="AC26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>200</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>4500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-1200</v>
       </c>
       <c r="T27" s="3">
         <v>-1200</v>
       </c>
       <c r="U27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-200</v>
       </c>
       <c r="AB27" s="3">
         <v>-200</v>
       </c>
       <c r="AC27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>200</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2529,8 +2590,8 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -2547,11 +2608,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>-400</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2562,8 +2623,8 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB29" s="3">
-        <v>0</v>
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC29" s="3">
         <v>0</v>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,22 +2819,25 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>100</v>
@@ -2776,49 +2846,49 @@
         <v>100</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W32" s="3">
         <v>100</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2827,11 +2897,11 @@
         <v>0</v>
       </c>
       <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
       <c r="AC32" s="3">
         <v>0</v>
       </c>
@@ -2839,99 +2909,105 @@
         <v>0</v>
       </c>
       <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>4500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-1200</v>
       </c>
       <c r="T33" s="3">
         <v>-1200</v>
       </c>
       <c r="U33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-700</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-200</v>
       </c>
       <c r="AB33" s="3">
         <v>-200</v>
       </c>
       <c r="AC33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>200</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>4500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-1200</v>
       </c>
       <c r="T35" s="3">
         <v>-1200</v>
       </c>
       <c r="U35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-700</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-200</v>
       </c>
       <c r="AB35" s="3">
         <v>-200</v>
       </c>
       <c r="AC35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>200</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43677</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43585</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43496</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43404</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43312</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43220</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43131</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43039</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42947</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42855</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42766</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42674</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,88 +3364,91 @@
         <v>18100</v>
       </c>
       <c r="E41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="F41" s="3">
         <v>17500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>17100</v>
       </c>
       <c r="H41" s="3">
         <v>17100</v>
       </c>
       <c r="I41" s="3">
+        <v>17100</v>
+      </c>
+      <c r="J41" s="3">
         <v>30000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>27200</v>
-      </c>
-      <c r="K41" s="3">
-        <v>24900</v>
       </c>
       <c r="L41" s="3">
         <v>24900</v>
       </c>
       <c r="M41" s="3">
+        <v>24900</v>
+      </c>
+      <c r="N41" s="3">
         <v>13600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4300</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>4200</v>
       </c>
       <c r="Z41" s="3">
         <v>4200</v>
       </c>
       <c r="AA41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB41" s="3">
         <v>4600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>5100</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>5600</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>6000</v>
       </c>
       <c r="AE41" s="3">
         <v>6000</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,97 +3536,103 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1100</v>
       </c>
       <c r="S43" s="3">
         <v>1100</v>
       </c>
       <c r="T43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1600</v>
-      </c>
-      <c r="AD43" s="3">
-        <v>1700</v>
       </c>
       <c r="AE43" s="3">
         <v>1700</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3624,46 +3720,49 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
       </c>
       <c r="K45" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="L45" s="3">
         <v>200</v>
       </c>
       <c r="M45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>300</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
@@ -3672,13 +3771,13 @@
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>500</v>
-      </c>
-      <c r="T45" s="3">
-        <v>400</v>
       </c>
       <c r="U45" s="3">
         <v>400</v>
@@ -3687,7 +3786,7 @@
         <v>400</v>
       </c>
       <c r="W45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="X45" s="3">
         <v>600</v>
@@ -3699,111 +3798,117 @@
         <v>600</v>
       </c>
       <c r="AA45" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>400</v>
-      </c>
-      <c r="AC45" s="3">
-        <v>500</v>
       </c>
       <c r="AD45" s="3">
         <v>500</v>
       </c>
       <c r="AE45" s="3">
+        <v>500</v>
+      </c>
+      <c r="AF45" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E46" s="3">
         <v>22000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>21600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>21500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>19900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>20300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>33700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>30500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>27600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>27900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>16800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>3200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>3900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>4500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>6500</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>6600</v>
       </c>
       <c r="Z46" s="3">
         <v>6600</v>
       </c>
       <c r="AA46" s="3">
+        <v>6600</v>
+      </c>
+      <c r="AB46" s="3">
         <v>7000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>7300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>7700</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8200</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8000</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,153 +3996,159 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>2400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1900</v>
       </c>
       <c r="H48" s="3">
         <v>1900</v>
       </c>
       <c r="I48" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3400</v>
-      </c>
-      <c r="T48" s="3">
-        <v>3600</v>
       </c>
       <c r="U48" s="3">
         <v>3600</v>
       </c>
       <c r="V48" s="3">
+        <v>3600</v>
+      </c>
+      <c r="W48" s="3">
         <v>3500</v>
-      </c>
-      <c r="W48" s="3">
-        <v>3300</v>
       </c>
       <c r="X48" s="3">
         <v>3300</v>
       </c>
       <c r="Y48" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Z48" s="3">
         <v>3100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2100</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E49" s="3">
         <v>21200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>30600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>31100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>31800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>32600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>8700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>9200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>2200</v>
       </c>
       <c r="R49" s="3">
         <v>2200</v>
       </c>
       <c r="S49" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="T49" s="3">
         <v>2300</v>
       </c>
       <c r="U49" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="V49" s="3">
         <v>2400</v>
@@ -4046,22 +4157,22 @@
         <v>2400</v>
       </c>
       <c r="X49" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Y49" s="3">
         <v>2500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2600</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2500</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>2300</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>2400</v>
       </c>
       <c r="AD49" s="3">
         <v>2400</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4256,37 +4376,37 @@
         <v>2000</v>
       </c>
       <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1100</v>
       </c>
       <c r="G52" s="3">
         <v>1100</v>
       </c>
       <c r="H52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>5400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>500</v>
       </c>
       <c r="P52" s="3">
         <v>500</v>
@@ -4295,13 +4415,13 @@
         <v>500</v>
       </c>
       <c r="R52" s="3">
+        <v>500</v>
+      </c>
+      <c r="S52" s="3">
         <v>600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>100</v>
-      </c>
-      <c r="T52" s="3">
-        <v>400</v>
       </c>
       <c r="U52" s="3">
         <v>400</v>
@@ -4310,10 +4430,10 @@
         <v>400</v>
       </c>
       <c r="W52" s="3">
+        <v>400</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
-      </c>
-      <c r="X52" s="3">
-        <v>300</v>
       </c>
       <c r="Y52" s="3">
         <v>300</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>46800</v>
+      </c>
+      <c r="E54" s="3">
         <v>47600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>55300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>55600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>54600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>55700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>42400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>37500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>33600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>21800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>11000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>8900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>9000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>11700</v>
-      </c>
-      <c r="X54" s="3">
-        <v>12600</v>
       </c>
       <c r="Y54" s="3">
         <v>12600</v>
       </c>
       <c r="Z54" s="3">
+        <v>12600</v>
+      </c>
+      <c r="AA54" s="3">
         <v>12400</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>12500</v>
       </c>
       <c r="AB54" s="3">
         <v>12500</v>
       </c>
       <c r="AC54" s="3">
+        <v>12500</v>
+      </c>
+      <c r="AD54" s="3">
         <v>12700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>12900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>12400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,46 +4710,47 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1400</v>
       </c>
       <c r="F57" s="3">
         <v>1400</v>
       </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>300</v>
       </c>
       <c r="M57" s="3">
         <v>300</v>
       </c>
       <c r="N57" s="3">
+        <v>300</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
       </c>
       <c r="P57" s="3">
         <v>300</v>
@@ -4631,19 +4762,19 @@
         <v>300</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
       </c>
       <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
-      </c>
-      <c r="W57" s="3">
-        <v>300</v>
       </c>
       <c r="X57" s="3">
         <v>300</v>
@@ -4652,11 +4783,11 @@
         <v>300</v>
       </c>
       <c r="Z57" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA57" s="3">
         <v>200</v>
       </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
       <c r="AB57" s="3">
         <v>0</v>
       </c>
@@ -4664,13 +4795,16 @@
         <v>0</v>
       </c>
       <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
         <v>100</v>
       </c>
-      <c r="AE57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4695,26 +4829,26 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -4722,8 +4856,8 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
+      <c r="T58" s="3">
+        <v>100</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -4731,8 +4865,8 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4758,186 +4892,195 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>7500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>12500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>6400</v>
       </c>
       <c r="J59" s="3">
         <v>6400</v>
       </c>
       <c r="K59" s="3">
+        <v>6400</v>
+      </c>
+      <c r="L59" s="3">
         <v>3600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2000</v>
-      </c>
-      <c r="AC59" s="3">
-        <v>1900</v>
       </c>
       <c r="AD59" s="3">
         <v>1900</v>
       </c>
       <c r="AE59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AF59" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>7300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>6800</v>
       </c>
       <c r="J60" s="3">
         <v>6800</v>
       </c>
       <c r="K60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>3600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>2000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>2000</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4951,7 +5094,7 @@
         <v>2000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -4966,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M61" s="3">
         <v>200</v>
@@ -4981,7 +5124,7 @@
         <v>200</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -5025,8 +5168,11 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -5034,19 +5180,19 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>1800</v>
       </c>
       <c r="H62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I62" s="3">
         <v>2600</v>
-      </c>
-      <c r="I62" s="3">
-        <v>100</v>
       </c>
       <c r="J62" s="3">
         <v>100</v>
@@ -5055,28 +5201,28 @@
         <v>100</v>
       </c>
       <c r="L62" s="3">
+        <v>100</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P62" s="3">
         <v>100</v>
       </c>
       <c r="Q62" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R62" s="3">
         <v>200</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>200</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>8</v>
@@ -5093,8 +5239,8 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E66" s="3">
         <v>9500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>9300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>11600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>10400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>16500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6900</v>
       </c>
       <c r="J66" s="3">
         <v>6900</v>
       </c>
       <c r="K66" s="3">
+        <v>6900</v>
+      </c>
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>2200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>2400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>2000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>2000</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-7600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-10000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-14800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-16300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-16000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-12800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-12600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-11900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-11600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-11300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-10100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-9900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-9600</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-9700</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>38900</v>
+      </c>
+      <c r="E76" s="3">
         <v>38100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>45900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>44000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>44200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>39100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>38000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>35400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>33200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>28200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>10000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>8900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>7900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>6700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>6100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>7000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>8100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>9200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>9300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>10000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>10200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>10300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>10000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>10600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>10500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>10700</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>10900</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>10600</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43677</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43585</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43496</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43404</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43312</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43220</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43131</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43039</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42947</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42855</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42766</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42674</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42582</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>4500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-1200</v>
       </c>
       <c r="T81" s="3">
         <v>-1200</v>
       </c>
       <c r="U81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-700</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-800</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-200</v>
       </c>
       <c r="AB81" s="3">
         <v>-200</v>
       </c>
       <c r="AC81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>200</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>-800</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,10 +6823,10 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
@@ -6636,7 +6835,7 @@
         <v>400</v>
       </c>
       <c r="K83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>300</v>
@@ -6645,28 +6844,28 @@
         <v>300</v>
       </c>
       <c r="N83" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>400</v>
       </c>
       <c r="P83" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500</v>
-      </c>
-      <c r="S83" s="3">
-        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>400</v>
       </c>
       <c r="U83" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V83" s="3">
         <v>300</v>
@@ -6678,7 +6877,7 @@
         <v>300</v>
       </c>
       <c r="Y83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z83" s="3">
         <v>200</v>
@@ -6693,13 +6892,16 @@
         <v>200</v>
       </c>
       <c r="AD83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>400</v>
+      </c>
+      <c r="E89" s="3">
         <v>1600</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>2400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>4000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>100</v>
       </c>
       <c r="Z89" s="3">
         <v>100</v>
       </c>
       <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-300</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
         <v>0</v>
       </c>
       <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>-600</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,49 +7485,50 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
@@ -7319,43 +7540,46 @@
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-500</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-400</v>
       </c>
       <c r="W91" s="3">
         <v>-400</v>
       </c>
       <c r="X91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-400</v>
-      </c>
-      <c r="AD91" s="3">
-        <v>-300</v>
       </c>
       <c r="AE91" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,37 +7759,40 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-4900</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
@@ -7571,10 +7801,10 @@
         <v>-200</v>
       </c>
       <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
@@ -7586,43 +7816,46 @@
         <v>-200</v>
       </c>
       <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
         <v>-400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-400</v>
-      </c>
-      <c r="AD94" s="3">
-        <v>-300</v>
       </c>
       <c r="AE94" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,23 +8253,26 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1700</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -8034,35 +8280,35 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>7500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>5100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -8076,13 +8322,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
       </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -8094,58 +8340,61 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -8168,11 +8417,11 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
       <c r="AA101" s="3">
         <v>0</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>1300</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-12900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>2800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>2300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>11300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>7400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>2400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA102" s="3">
-        <v>-500</v>
       </c>
       <c r="AB102" s="3">
         <v>-500</v>
       </c>
       <c r="AC102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="AD102" s="3">
         <v>-400</v>
       </c>
-      <c r="AD102" s="3">
-        <v>0</v>
-      </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>2000</v>
       </c>
     </row>
